--- a/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835558425890107</v>
+        <v>0.9830567032298616</v>
       </c>
       <c r="D2">
-        <v>1.005033639623519</v>
+        <v>1.004694797867954</v>
       </c>
       <c r="E2">
-        <v>0.9914813558658762</v>
+        <v>0.991236926829093</v>
       </c>
       <c r="F2">
-        <v>0.993428345290662</v>
+        <v>0.958989120473168</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038822149453216</v>
+        <v>1.037477601829718</v>
       </c>
       <c r="J2">
-        <v>1.006239771972937</v>
+        <v>1.005756271201478</v>
       </c>
       <c r="K2">
-        <v>1.016423290477776</v>
+        <v>1.016089111905442</v>
       </c>
       <c r="L2">
-        <v>1.003060658691755</v>
+        <v>1.002819710445563</v>
       </c>
       <c r="M2">
-        <v>1.004979999354939</v>
+        <v>0.9710509962234078</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9916433499634481</v>
+        <v>0.990849836672774</v>
       </c>
       <c r="D3">
-        <v>1.011025699906121</v>
+        <v>1.01070202040034</v>
       </c>
       <c r="E3">
-        <v>0.9982523865150809</v>
+        <v>0.9977286238598841</v>
       </c>
       <c r="F3">
-        <v>1.001778751520502</v>
+        <v>0.9697169009700094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041619995248687</v>
+        <v>1.04026330642997</v>
       </c>
       <c r="J3">
-        <v>1.012364447412602</v>
+        <v>1.011593091012073</v>
       </c>
       <c r="K3">
-        <v>1.021519422122425</v>
+        <v>1.021199773966044</v>
       </c>
       <c r="L3">
-        <v>1.008907677328158</v>
+        <v>1.008390650103652</v>
       </c>
       <c r="M3">
-        <v>1.012388923370022</v>
+        <v>0.9807525065289677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9967018645709861</v>
+        <v>0.9957166627415681</v>
       </c>
       <c r="D4">
-        <v>1.014775471643582</v>
+        <v>1.014454924709701</v>
       </c>
       <c r="E4">
-        <v>1.002493437072272</v>
+        <v>1.001788587318201</v>
       </c>
       <c r="F4">
-        <v>1.007005964705533</v>
+        <v>0.9764027013494478</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043353720403897</v>
+        <v>1.041986245912912</v>
       </c>
       <c r="J4">
-        <v>1.016190314921128</v>
+        <v>1.015230575008305</v>
       </c>
       <c r="K4">
-        <v>1.024698781392416</v>
+        <v>1.024381966553016</v>
       </c>
       <c r="L4">
-        <v>1.012561861373254</v>
+        <v>1.011865473493803</v>
       </c>
       <c r="M4">
-        <v>1.017020562958496</v>
+        <v>0.9867945229507956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987892481806702</v>
+        <v>0.9977232995910599</v>
       </c>
       <c r="D5">
-        <v>1.01632312013967</v>
+        <v>1.016002492141686</v>
       </c>
       <c r="E5">
-        <v>1.004244811217548</v>
+        <v>1.003463860184241</v>
       </c>
       <c r="F5">
-        <v>1.009163969046257</v>
+        <v>0.9791566683858901</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044065162830265</v>
+        <v>1.042692552012317</v>
       </c>
       <c r="J5">
-        <v>1.017767786812637</v>
+        <v>1.016728485746189</v>
       </c>
       <c r="K5">
-        <v>1.02600868836183</v>
+        <v>1.025691686406887</v>
       </c>
       <c r="L5">
-        <v>1.01406895212801</v>
+        <v>1.013297102806795</v>
       </c>
       <c r="M5">
-        <v>1.018931178807904</v>
+        <v>0.9892822359566859</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991375002704208</v>
+        <v>0.9980579876297093</v>
       </c>
       <c r="D6">
-        <v>1.016581339195574</v>
+        <v>1.016260620777822</v>
       </c>
       <c r="E6">
-        <v>1.004537078832887</v>
+        <v>1.003743354330795</v>
       </c>
       <c r="F6">
-        <v>1.009524062120343</v>
+        <v>0.9796158654387881</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044183621540739</v>
+        <v>1.042810115549875</v>
       </c>
       <c r="J6">
-        <v>1.018030890555334</v>
+        <v>1.016978212990944</v>
       </c>
       <c r="K6">
-        <v>1.026227105697091</v>
+        <v>1.025909996512948</v>
       </c>
       <c r="L6">
-        <v>1.014320340658447</v>
+        <v>1.01353582040731</v>
       </c>
       <c r="M6">
-        <v>1.019249902220858</v>
+        <v>0.9896969729569064</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9967299071392288</v>
+        <v>0.9957436268548859</v>
       </c>
       <c r="D7">
-        <v>1.014796262175012</v>
+        <v>1.014475719412658</v>
       </c>
       <c r="E7">
-        <v>1.002516960518431</v>
+        <v>1.001811093663508</v>
       </c>
       <c r="F7">
-        <v>1.007034952042562</v>
+        <v>0.9764397173898839</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043363293987944</v>
+        <v>1.041995753113346</v>
       </c>
       <c r="J7">
-        <v>1.016211512273193</v>
+        <v>1.01525071052871</v>
       </c>
       <c r="K7">
-        <v>1.02471638732957</v>
+        <v>1.024399575174483</v>
       </c>
       <c r="L7">
-        <v>1.012582111381778</v>
+        <v>1.011884715282092</v>
       </c>
       <c r="M7">
-        <v>1.017046233266934</v>
+        <v>0.9868279646012604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>0.986326858082429</v>
+        <v>0.9857285728253792</v>
       </c>
       <c r="D8">
-        <v>1.007086200223707</v>
+        <v>1.006753998623413</v>
       </c>
       <c r="E8">
-        <v>0.9937999740862723</v>
+        <v>0.9934612886619376</v>
       </c>
       <c r="F8">
-        <v>0.9962885259257883</v>
+        <v>0.9626704600492326</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03978416363252</v>
+        <v>1.038436185535012</v>
       </c>
       <c r="J8">
-        <v>1.008339263101859</v>
+        <v>1.007759016912725</v>
       </c>
       <c r="K8">
-        <v>1.018171032411277</v>
+        <v>1.017843253370838</v>
       </c>
       <c r="L8">
-        <v>1.005064588835425</v>
+        <v>1.004730565534177</v>
       </c>
       <c r="M8">
-        <v>1.007519007307735</v>
+        <v>0.9743810064125391</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.96652617936323</v>
+        <v>0.9665941677262433</v>
       </c>
       <c r="D9">
-        <v>0.9924343027488681</v>
+        <v>0.9920189033050771</v>
       </c>
       <c r="E9">
-        <v>0.9772633563729466</v>
+        <v>0.9775621598194767</v>
       </c>
       <c r="F9">
-        <v>0.975869992877042</v>
+        <v>0.9362145292772189</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032842541272216</v>
+        <v>1.031500850772862</v>
       </c>
       <c r="J9">
-        <v>0.9933189978390899</v>
+        <v>0.9933843443550773</v>
       </c>
       <c r="K9">
-        <v>1.005651332457621</v>
+        <v>1.005242809185547</v>
       </c>
       <c r="L9">
-        <v>0.9907364154742825</v>
+        <v>0.9910300770428786</v>
       </c>
       <c r="M9">
-        <v>0.9893670830763591</v>
+        <v>0.950434828381381</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9521254420077623</v>
+        <v>0.9526089980898159</v>
       </c>
       <c r="D10">
-        <v>0.9818060895525174</v>
+        <v>0.9812715790801291</v>
       </c>
       <c r="E10">
-        <v>0.9652840691538822</v>
+        <v>0.9659871240360334</v>
       </c>
       <c r="F10">
-        <v>0.9610456253745456</v>
+        <v>0.9167130969335922</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027711462057856</v>
+        <v>1.026344143526575</v>
       </c>
       <c r="J10">
-        <v>0.982376267211117</v>
+        <v>0.9828377741299282</v>
       </c>
       <c r="K10">
-        <v>0.9965117988220191</v>
+        <v>0.9959874195656386</v>
       </c>
       <c r="L10">
-        <v>0.9803097557064855</v>
+        <v>0.9809989018088645</v>
       </c>
       <c r="M10">
-        <v>0.9761557297836387</v>
+        <v>0.9327686642908517</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9455472587318839</v>
+        <v>0.9461978054234136</v>
       </c>
       <c r="D11">
-        <v>0.9769610100037142</v>
+        <v>0.9763527392380167</v>
       </c>
       <c r="E11">
-        <v>0.9598259716818526</v>
+        <v>0.9606939357821274</v>
       </c>
       <c r="F11">
-        <v>0.9542803720633198</v>
+        <v>0.9077153507145809</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025349514586958</v>
+        <v>1.023960403539513</v>
       </c>
       <c r="J11">
-        <v>0.9773749103966355</v>
+        <v>0.9779937138288579</v>
       </c>
       <c r="K11">
-        <v>0.9923308916340617</v>
+        <v>0.9917348249637699</v>
       </c>
       <c r="L11">
-        <v>0.9755474754984652</v>
+        <v>0.9763972295507688</v>
       </c>
       <c r="M11">
-        <v>0.9701192598062953</v>
+        <v>0.9246160931224318</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9430464582380573</v>
+        <v>0.9437562967932038</v>
       </c>
       <c r="D12">
-        <v>0.9751208701698666</v>
+        <v>0.9744810203569989</v>
       </c>
       <c r="E12">
-        <v>0.9577533561862457</v>
+        <v>0.9586803864050066</v>
       </c>
       <c r="F12">
-        <v>0.9517094521910562</v>
+        <v>0.9042781552239658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024449013994902</v>
+        <v>1.02304976434528</v>
       </c>
       <c r="J12">
-        <v>0.9754733154358799</v>
+        <v>0.9761476408982011</v>
       </c>
       <c r="K12">
-        <v>0.9907407578649922</v>
+        <v>0.990114016933957</v>
       </c>
       <c r="L12">
-        <v>0.9737373023172829</v>
+        <v>0.9746444582859487</v>
       </c>
       <c r="M12">
-        <v>0.967824232304476</v>
+        <v>0.9215017272915014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9435855899814775</v>
+        <v>0.9442828499181479</v>
       </c>
       <c r="D13">
-        <v>0.9755174878331608</v>
+        <v>0.9748846175621464</v>
       </c>
       <c r="E13">
-        <v>0.9582000668286068</v>
+        <v>0.9591145395638477</v>
       </c>
       <c r="F13">
-        <v>0.9522636549911864</v>
+        <v>0.9050199633977706</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024643260458778</v>
+        <v>1.023246286609379</v>
       </c>
       <c r="J13">
-        <v>0.9758832766053837</v>
+        <v>0.9765458390555799</v>
       </c>
       <c r="K13">
-        <v>0.9910835924760081</v>
+        <v>0.9904636302040871</v>
       </c>
       <c r="L13">
-        <v>0.9741275298494642</v>
+        <v>0.9750224880757821</v>
       </c>
       <c r="M13">
-        <v>0.9683190090807646</v>
+        <v>0.9221738607119956</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9453417497198054</v>
+        <v>0.9459972589176396</v>
       </c>
       <c r="D14">
-        <v>0.9768097540068126</v>
+        <v>0.9761989640534412</v>
       </c>
       <c r="E14">
-        <v>0.9596556001719275</v>
+        <v>0.9605284960632444</v>
       </c>
       <c r="F14">
-        <v>0.9540690804345449</v>
+        <v>0.9074332471558564</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025275564971034</v>
+        <v>1.023885660583805</v>
       </c>
       <c r="J14">
-        <v>0.9772186464950486</v>
+        <v>0.9778421040292815</v>
       </c>
       <c r="K14">
-        <v>0.9922002315402144</v>
+        <v>0.9916017174736913</v>
       </c>
       <c r="L14">
-        <v>0.9753987134011226</v>
+        <v>0.9762532629526544</v>
       </c>
       <c r="M14">
-        <v>0.9699306636187075</v>
+        <v>0.9243604847152104</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9464159825537415</v>
+        <v>0.9470453766718684</v>
       </c>
       <c r="D15">
-        <v>0.9776004712579002</v>
+        <v>0.9770027018353524</v>
       </c>
       <c r="E15">
-        <v>0.9605462605990411</v>
+        <v>0.9613932256023403</v>
       </c>
       <c r="F15">
-        <v>0.9551735807356931</v>
+        <v>0.9089071614111862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025662009739458</v>
+        <v>1.0242761748244</v>
       </c>
       <c r="J15">
-        <v>0.9780354571225104</v>
+        <v>0.9786344085375784</v>
       </c>
       <c r="K15">
-        <v>0.9928831886027646</v>
+        <v>0.9922973247300971</v>
       </c>
       <c r="L15">
-        <v>0.9761763325605135</v>
+        <v>0.9770056625833183</v>
       </c>
       <c r="M15">
-        <v>0.9709164836909987</v>
+        <v>0.9256959690495233</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525543143292065</v>
+        <v>0.953026453715883</v>
       </c>
       <c r="D16">
-        <v>0.9821221983738837</v>
+        <v>0.9815920490169355</v>
       </c>
       <c r="E16">
-        <v>0.9656402257716108</v>
+        <v>0.9663320710288152</v>
       </c>
       <c r="F16">
-        <v>0.9614868292119191</v>
+        <v>0.9172976262653981</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027865091081488</v>
+        <v>1.026498959199405</v>
       </c>
       <c r="J16">
-        <v>0.9827022927549682</v>
+        <v>0.9831530007350296</v>
       </c>
       <c r="K16">
-        <v>0.9967842707273723</v>
+        <v>0.9962641317264879</v>
       </c>
       <c r="L16">
-        <v>0.9806202657085953</v>
+        <v>0.9812984776214638</v>
       </c>
       <c r="M16">
-        <v>0.9765492574205205</v>
+        <v>0.9332982712200012</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9563091330896046</v>
+        <v>0.9566786880631154</v>
       </c>
       <c r="D17">
-        <v>0.9848908990726059</v>
+        <v>0.9843967034549258</v>
       </c>
       <c r="E17">
-        <v>0.968760008705061</v>
+        <v>0.9693514372933025</v>
       </c>
       <c r="F17">
-        <v>0.9653503381316879</v>
+        <v>0.9224048933198965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029208112574335</v>
+        <v>1.027851207712065</v>
       </c>
       <c r="J17">
-        <v>0.9855563841764278</v>
+        <v>0.9859098252532026</v>
       </c>
       <c r="K17">
-        <v>0.9991691354142266</v>
+        <v>0.9986839602278511</v>
       </c>
       <c r="L17">
-        <v>0.9833388950443018</v>
+        <v>0.9839190693870407</v>
       </c>
       <c r="M17">
-        <v>0.9799944589450331</v>
+        <v>0.9379255007708003</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9584666475956883</v>
+        <v>0.9587751828142952</v>
       </c>
       <c r="D18">
-        <v>0.9864826875898383</v>
+        <v>0.9860073914997949</v>
       </c>
       <c r="E18">
-        <v>0.9705539193940678</v>
+        <v>0.9710858542122626</v>
       </c>
       <c r="F18">
-        <v>0.9675709055765063</v>
+        <v>0.9253313868650983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029978110146391</v>
+        <v>1.028625590858489</v>
       </c>
       <c r="J18">
-        <v>0.9871960709321729</v>
+        <v>0.9874914666726999</v>
       </c>
       <c r="K18">
-        <v>1.000538899346001</v>
+        <v>1.000072107383377</v>
       </c>
       <c r="L18">
-        <v>0.9849010550196573</v>
+        <v>0.9854230735670849</v>
       </c>
       <c r="M18">
-        <v>0.9819739140853722</v>
+        <v>0.9405767665477139</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9591969376387652</v>
+        <v>0.9594844855201738</v>
       </c>
       <c r="D19">
-        <v>0.9870216303023902</v>
+        <v>0.9865524488667324</v>
       </c>
       <c r="E19">
-        <v>0.9711613454515082</v>
+        <v>0.9716728545703225</v>
       </c>
       <c r="F19">
-        <v>0.968322639080617</v>
+        <v>0.9263206654351683</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030238451458701</v>
+        <v>1.028887269720178</v>
       </c>
       <c r="J19">
-        <v>0.987751032668949</v>
+        <v>0.9880264333132245</v>
       </c>
       <c r="K19">
-        <v>1.0010024427961</v>
+        <v>1.000541598924238</v>
       </c>
       <c r="L19">
-        <v>0.9854298266312237</v>
+        <v>0.9859318671029493</v>
       </c>
       <c r="M19">
-        <v>0.9826439053853844</v>
+        <v>0.9414729733798267</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9559096889922682</v>
+        <v>0.9562903775988931</v>
       </c>
       <c r="D20">
-        <v>0.9845962645791639</v>
+        <v>0.9840984310781625</v>
       </c>
       <c r="E20">
-        <v>0.9684279851660927</v>
+        <v>0.9690302870018286</v>
       </c>
       <c r="F20">
-        <v>0.9649392687945907</v>
+        <v>0.9218624393239102</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029065415596217</v>
+        <v>1.027707626560131</v>
       </c>
       <c r="J20">
-        <v>0.9852527880860507</v>
+        <v>0.9856168053299339</v>
       </c>
       <c r="K20">
-        <v>0.9989154879991936</v>
+        <v>0.9984267746025915</v>
       </c>
       <c r="L20">
-        <v>0.9830496772314655</v>
+        <v>0.9836404746669315</v>
       </c>
       <c r="M20">
-        <v>0.9796279679777684</v>
+        <v>0.9374340483194775</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9448262404270223</v>
+        <v>0.9454941275034754</v>
       </c>
       <c r="D21">
-        <v>0.9764303657076339</v>
+        <v>0.9758131972086683</v>
       </c>
       <c r="E21">
-        <v>0.9592282705653199</v>
+        <v>0.9601134767813018</v>
       </c>
       <c r="F21">
-        <v>0.9535390818718601</v>
+        <v>0.9067253263009296</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025090025265994</v>
+        <v>1.023698099726809</v>
       </c>
       <c r="J21">
-        <v>0.9768266627427804</v>
+        <v>0.9774617233633299</v>
       </c>
       <c r="K21">
-        <v>0.9918724666759942</v>
+        <v>0.9912677561383525</v>
       </c>
       <c r="L21">
-        <v>0.9750255562337813</v>
+        <v>0.9758920738308551</v>
       </c>
       <c r="M21">
-        <v>0.9694575768800394</v>
+        <v>0.9237190520136608</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9375220306921939</v>
+        <v>0.9383540325295414</v>
       </c>
       <c r="D22">
-        <v>0.9710595911272561</v>
+        <v>0.9703425665480133</v>
       </c>
       <c r="E22">
-        <v>0.9531795223689985</v>
+        <v>0.9542294113688776</v>
       </c>
       <c r="F22">
-        <v>0.9460320080290737</v>
+        <v>0.8966503664387724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022455186196518</v>
+        <v>1.02102964298045</v>
       </c>
       <c r="J22">
-        <v>0.9712723155700659</v>
+        <v>0.9720603899567549</v>
       </c>
       <c r="K22">
-        <v>0.9872270219295353</v>
+        <v>0.9865253616404395</v>
       </c>
       <c r="L22">
-        <v>0.9697392837265674</v>
+        <v>0.970765594181714</v>
       </c>
       <c r="M22">
-        <v>0.9627541478045224</v>
+        <v>0.9145905725748081</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9414281795089418</v>
+        <v>0.9421750875829183</v>
       </c>
       <c r="D23">
-        <v>0.9739306570545276</v>
+        <v>0.9732692791224603</v>
       </c>
       <c r="E23">
-        <v>0.9564128618803853</v>
+        <v>0.957376991137333</v>
       </c>
       <c r="F23">
-        <v>0.9500460844353711</v>
+        <v>0.9020488019505335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023865592330549</v>
+        <v>1.02245920787238</v>
       </c>
       <c r="J23">
-        <v>0.9742427376408486</v>
+        <v>0.9749516767193953</v>
       </c>
       <c r="K23">
-        <v>0.9897116078617579</v>
+        <v>0.9890639616727021</v>
       </c>
       <c r="L23">
-        <v>0.9725660386183174</v>
+        <v>0.9735092112764591</v>
       </c>
       <c r="M23">
-        <v>0.9663390725775789</v>
+        <v>0.9194817811876578</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956090280918677</v>
+        <v>0.9564659423157755</v>
       </c>
       <c r="D24">
-        <v>0.9847294684663767</v>
+        <v>0.984233285107577</v>
       </c>
       <c r="E24">
-        <v>0.9685780917262599</v>
+        <v>0.9691754832106744</v>
       </c>
       <c r="F24">
-        <v>0.9651251147238031</v>
+        <v>0.9221077122670625</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029129935361708</v>
+        <v>1.027772548892501</v>
       </c>
       <c r="J24">
-        <v>0.9853900472030085</v>
+        <v>0.985749289527504</v>
       </c>
       <c r="K24">
-        <v>0.9990301658672385</v>
+        <v>0.9985430573886378</v>
       </c>
       <c r="L24">
-        <v>0.9831804348516924</v>
+        <v>0.983766435124351</v>
       </c>
       <c r="M24">
-        <v>0.9797936620089724</v>
+        <v>0.93765626121531</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9718393486579385</v>
+        <v>0.9717385522833341</v>
       </c>
       <c r="D25">
-        <v>0.9963621016783217</v>
+        <v>0.9959775136121418</v>
       </c>
       <c r="E25">
-        <v>0.9816934099670533</v>
+        <v>0.9818297236520641</v>
       </c>
       <c r="F25">
-        <v>0.9813447038207735</v>
+        <v>0.9433501001485948</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034719595756749</v>
+        <v>1.033380562836328</v>
       </c>
       <c r="J25">
-        <v>0.997353072363932</v>
+        <v>0.9972559508277479</v>
       </c>
       <c r="K25">
-        <v>1.009017155062845</v>
+        <v>1.008638596100164</v>
       </c>
       <c r="L25">
-        <v>0.9945827192570986</v>
+        <v>0.9947168146519131</v>
       </c>
       <c r="M25">
-        <v>0.9942396913569187</v>
+        <v>0.9568964706870988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830567032298616</v>
+        <v>0.9883169833128669</v>
       </c>
       <c r="D2">
-        <v>1.004694797867954</v>
+        <v>1.009017903519744</v>
       </c>
       <c r="E2">
-        <v>0.991236926829093</v>
+        <v>0.9963847345116078</v>
       </c>
       <c r="F2">
-        <v>0.958989120473168</v>
+        <v>0.9975632322784099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037477601829718</v>
+        <v>1.04096685621361</v>
       </c>
       <c r="J2">
-        <v>1.005756271201478</v>
+        <v>1.010852836372217</v>
       </c>
       <c r="K2">
-        <v>1.016089111905442</v>
+        <v>1.020353018149685</v>
       </c>
       <c r="L2">
-        <v>1.002819710445563</v>
+        <v>1.007894666569465</v>
       </c>
       <c r="M2">
-        <v>0.9710509962234078</v>
+        <v>1.00905661986194</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990849836672774</v>
+        <v>0.9929646367831181</v>
       </c>
       <c r="D3">
-        <v>1.01070202040034</v>
+        <v>1.012349381313163</v>
       </c>
       <c r="E3">
-        <v>0.9977286238598841</v>
+        <v>1.000086690277572</v>
       </c>
       <c r="F3">
-        <v>0.9697169009700094</v>
+        <v>1.003019541230735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04026330642997</v>
+        <v>1.042332581709041</v>
       </c>
       <c r="J3">
-        <v>1.011593091012073</v>
+        <v>1.013648947790226</v>
       </c>
       <c r="K3">
-        <v>1.021199773966044</v>
+        <v>1.02282665081231</v>
       </c>
       <c r="L3">
-        <v>1.008390650103652</v>
+        <v>1.010718462005549</v>
       </c>
       <c r="M3">
-        <v>0.9807525065289677</v>
+        <v>1.013613931708642</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9957166627415681</v>
+        <v>0.9959062197391827</v>
       </c>
       <c r="D4">
-        <v>1.014454924709701</v>
+        <v>1.014458310612638</v>
       </c>
       <c r="E4">
-        <v>1.001788587318201</v>
+        <v>1.002436024241195</v>
       </c>
       <c r="F4">
-        <v>0.9764027013494478</v>
+        <v>1.006472011252077</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041986245912912</v>
+        <v>1.043181965962655</v>
       </c>
       <c r="J4">
-        <v>1.015230575008305</v>
+        <v>1.01541522772641</v>
       </c>
       <c r="K4">
-        <v>1.024381966553016</v>
+        <v>1.024385313018998</v>
       </c>
       <c r="L4">
-        <v>1.011865473493803</v>
+        <v>1.012505137243404</v>
       </c>
       <c r="M4">
-        <v>0.9867945229507956</v>
+        <v>1.016492947372888</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9977232995910599</v>
+        <v>0.9971277080612969</v>
       </c>
       <c r="D5">
-        <v>1.016002492141686</v>
+        <v>1.015334067652191</v>
       </c>
       <c r="E5">
-        <v>1.003463860184241</v>
+        <v>1.003413046199821</v>
       </c>
       <c r="F5">
-        <v>0.9791566683858901</v>
+        <v>1.0079054681833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042692552012317</v>
+        <v>1.043531019660986</v>
       </c>
       <c r="J5">
-        <v>1.016728485746189</v>
+        <v>1.016147816815962</v>
       </c>
       <c r="K5">
-        <v>1.025691686406887</v>
+        <v>1.025030830334265</v>
       </c>
       <c r="L5">
-        <v>1.013297102806795</v>
+        <v>1.01324688164879</v>
       </c>
       <c r="M5">
-        <v>0.9892822359566859</v>
+        <v>1.01768717767394</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9980579876297093</v>
+        <v>0.9973319292873002</v>
       </c>
       <c r="D6">
-        <v>1.016260620777822</v>
+        <v>1.015480485674683</v>
       </c>
       <c r="E6">
-        <v>1.003743354330795</v>
+        <v>1.003576479718348</v>
       </c>
       <c r="F6">
-        <v>0.9796158654387881</v>
+        <v>1.008145119434929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042810115549875</v>
+        <v>1.043589161944906</v>
       </c>
       <c r="J6">
-        <v>1.016978212990944</v>
+        <v>1.016270247441953</v>
       </c>
       <c r="K6">
-        <v>1.025909996512948</v>
+        <v>1.025138652456352</v>
       </c>
       <c r="L6">
-        <v>1.01353582040731</v>
+        <v>1.013370883209033</v>
       </c>
       <c r="M6">
-        <v>0.9896969729569064</v>
+        <v>1.017886766969212</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9957436268548859</v>
+        <v>0.9959226001099601</v>
       </c>
       <c r="D7">
-        <v>1.014475719412658</v>
+        <v>1.01447005464244</v>
       </c>
       <c r="E7">
-        <v>1.001811093663508</v>
+        <v>1.002449120550541</v>
       </c>
       <c r="F7">
-        <v>0.9764397173898839</v>
+        <v>1.006491234798424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041995753113346</v>
+        <v>1.043186661331414</v>
       </c>
       <c r="J7">
-        <v>1.01525071052871</v>
+        <v>1.015425055300701</v>
       </c>
       <c r="K7">
-        <v>1.024399575174483</v>
+        <v>1.024393976359383</v>
       </c>
       <c r="L7">
-        <v>1.011884715282092</v>
+        <v>1.012515084884594</v>
       </c>
       <c r="M7">
-        <v>0.9868279646012604</v>
+        <v>1.016508967235537</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9857285728253792</v>
+        <v>0.9899016611275573</v>
       </c>
       <c r="D8">
-        <v>1.006753998623413</v>
+        <v>1.010153695371182</v>
       </c>
       <c r="E8">
-        <v>0.9934612886619376</v>
+        <v>0.9976456123018275</v>
       </c>
       <c r="F8">
-        <v>0.9626704600492326</v>
+        <v>0.9994238547140044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038436185535012</v>
+        <v>1.041435637017876</v>
       </c>
       <c r="J8">
-        <v>1.007759016912725</v>
+        <v>1.011806905906198</v>
       </c>
       <c r="K8">
-        <v>1.017843253370838</v>
+        <v>1.021197862761157</v>
       </c>
       <c r="L8">
-        <v>1.004730565534177</v>
+        <v>1.008857569996413</v>
       </c>
       <c r="M8">
-        <v>0.9743810064125391</v>
+        <v>1.010611635913294</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665941677262433</v>
+        <v>0.9787600997153509</v>
       </c>
       <c r="D9">
-        <v>0.9920189033050771</v>
+        <v>1.00217249924746</v>
       </c>
       <c r="E9">
-        <v>0.9775621598194767</v>
+        <v>0.9888095135953621</v>
       </c>
       <c r="F9">
-        <v>0.9362145292772189</v>
+        <v>0.986336200885143</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031500850772862</v>
+        <v>1.038077962439929</v>
       </c>
       <c r="J9">
-        <v>0.9933843443550773</v>
+        <v>1.005085851493501</v>
       </c>
       <c r="K9">
-        <v>1.005242809185547</v>
+        <v>1.015230427230318</v>
       </c>
       <c r="L9">
-        <v>0.9910300770428786</v>
+        <v>1.002086795929663</v>
       </c>
       <c r="M9">
-        <v>0.950434828381381</v>
+        <v>0.9996549233092444</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9526089980898159</v>
+        <v>0.9709323446697894</v>
       </c>
       <c r="D10">
-        <v>0.9812715790801291</v>
+        <v>0.996573813427136</v>
       </c>
       <c r="E10">
-        <v>0.9659871240360334</v>
+        <v>0.9826407384743042</v>
       </c>
       <c r="F10">
-        <v>0.9167130969335922</v>
+        <v>0.9771310525306325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026344143526575</v>
+        <v>1.035642672814127</v>
       </c>
       <c r="J10">
-        <v>0.9828377741299282</v>
+        <v>1.000348665827502</v>
       </c>
       <c r="K10">
-        <v>0.9959874195656386</v>
+        <v>1.011005205509593</v>
       </c>
       <c r="L10">
-        <v>0.9809989018088645</v>
+        <v>0.9973306564524527</v>
       </c>
       <c r="M10">
-        <v>0.9327686642908517</v>
+        <v>0.9919258649249161</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9461978054234136</v>
+        <v>0.967437549054314</v>
       </c>
       <c r="D11">
-        <v>0.9763527392380167</v>
+        <v>0.9940773503035361</v>
       </c>
       <c r="E11">
-        <v>0.9606939357821274</v>
+        <v>0.9798967739009049</v>
       </c>
       <c r="F11">
-        <v>0.9077153507145809</v>
+        <v>0.9730180067358305</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023960403539513</v>
+        <v>1.034538069393961</v>
       </c>
       <c r="J11">
-        <v>0.9779937138288579</v>
+        <v>0.9982306356387594</v>
       </c>
       <c r="K11">
-        <v>0.9917348249637699</v>
+        <v>1.009111830167126</v>
       </c>
       <c r="L11">
-        <v>0.9763972295507688</v>
+        <v>0.9952080335991904</v>
       </c>
       <c r="M11">
-        <v>0.9246160931224318</v>
+        <v>0.9884673563472887</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9437562967932038</v>
+        <v>0.9661226340028196</v>
       </c>
       <c r="D12">
-        <v>0.9744810203569989</v>
+        <v>0.9931386255329842</v>
       </c>
       <c r="E12">
-        <v>0.9586803864050066</v>
+        <v>0.9788659623088346</v>
       </c>
       <c r="F12">
-        <v>0.9042781552239658</v>
+        <v>0.971469895651086</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02304976434528</v>
+        <v>1.034119924830627</v>
       </c>
       <c r="J12">
-        <v>0.9761476408982011</v>
+        <v>0.9974333167267994</v>
       </c>
       <c r="K12">
-        <v>0.990114016933957</v>
+        <v>1.008398469908959</v>
       </c>
       <c r="L12">
-        <v>0.9746444582859487</v>
+        <v>0.9944095754280258</v>
       </c>
       <c r="M12">
-        <v>0.9215017272915014</v>
+        <v>0.9871648885778613</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9442828499181479</v>
+        <v>0.9664054640335046</v>
       </c>
       <c r="D13">
-        <v>0.9748846175621464</v>
+        <v>0.9933405121039256</v>
       </c>
       <c r="E13">
-        <v>0.9591145395638477</v>
+        <v>0.9790876097238992</v>
       </c>
       <c r="F13">
-        <v>0.9050199633977706</v>
+        <v>0.9718029123230654</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023246286609379</v>
+        <v>1.034209978671429</v>
       </c>
       <c r="J13">
-        <v>0.9765458390555799</v>
+        <v>0.9976048328317554</v>
       </c>
       <c r="K13">
-        <v>0.9904636302040871</v>
+        <v>1.008551952325419</v>
       </c>
       <c r="L13">
-        <v>0.9750224880757821</v>
+        <v>0.9945813098607932</v>
       </c>
       <c r="M13">
-        <v>0.9221738607119956</v>
+        <v>0.987445096385953</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9459972589176396</v>
+        <v>0.9673292061982209</v>
       </c>
       <c r="D14">
-        <v>0.9761989640534412</v>
+        <v>0.9939999916487204</v>
       </c>
       <c r="E14">
-        <v>0.9605284960632444</v>
+        <v>0.9798118067978144</v>
       </c>
       <c r="F14">
-        <v>0.9074332471558564</v>
+        <v>0.9728904619094237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023885660583805</v>
+        <v>1.0345036674098</v>
       </c>
       <c r="J14">
-        <v>0.9778421040292815</v>
+        <v>0.998164948354834</v>
       </c>
       <c r="K14">
-        <v>0.9916017174736913</v>
+        <v>1.009053072092662</v>
       </c>
       <c r="L14">
-        <v>0.9762532629526544</v>
+        <v>0.9951422404392566</v>
       </c>
       <c r="M14">
-        <v>0.9243604847152104</v>
+        <v>0.9883600638163815</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9470453766718684</v>
+        <v>0.9678960988125065</v>
       </c>
       <c r="D15">
-        <v>0.9770027018353524</v>
+        <v>0.9944047864218517</v>
       </c>
       <c r="E15">
-        <v>0.9613932256023403</v>
+        <v>0.9802564540468128</v>
       </c>
       <c r="F15">
-        <v>0.9089071614111862</v>
+        <v>0.9735578026751526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0242761748244</v>
+        <v>1.034683569177182</v>
       </c>
       <c r="J15">
-        <v>0.9786344085375784</v>
+        <v>0.998508633709097</v>
       </c>
       <c r="K15">
-        <v>0.9922973247300971</v>
+        <v>1.009360478087755</v>
       </c>
       <c r="L15">
-        <v>0.9770056625833183</v>
+        <v>0.9954865038096854</v>
       </c>
       <c r="M15">
-        <v>0.9256959690495233</v>
+        <v>0.9889214113598302</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.953026453715883</v>
+        <v>0.9711619827315046</v>
       </c>
       <c r="D16">
-        <v>0.9815920490169355</v>
+        <v>0.9967379258289948</v>
       </c>
       <c r="E16">
-        <v>0.9663320710288152</v>
+        <v>0.9828212583519005</v>
       </c>
       <c r="F16">
-        <v>0.9172976262653981</v>
+        <v>0.9774012393789768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026498959199405</v>
+        <v>1.035714899463258</v>
       </c>
       <c r="J16">
-        <v>0.9831530007350296</v>
+        <v>1.000487778978508</v>
       </c>
       <c r="K16">
-        <v>0.9962641317264879</v>
+        <v>1.011129477123368</v>
       </c>
       <c r="L16">
-        <v>0.9812984776214638</v>
+        <v>0.9974701525214905</v>
       </c>
       <c r="M16">
-        <v>0.9332982712200012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9921529537117598</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9566786880631154</v>
+        <v>0.9731817267829962</v>
       </c>
       <c r="D17">
-        <v>0.9843967034549258</v>
+        <v>0.9981817175771198</v>
       </c>
       <c r="E17">
-        <v>0.9693514372933025</v>
+        <v>0.9844101551973686</v>
       </c>
       <c r="F17">
-        <v>0.9224048933198965</v>
+        <v>0.9797772395595582</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027851207712065</v>
+        <v>1.03634819416279</v>
       </c>
       <c r="J17">
-        <v>0.9859098252532026</v>
+        <v>1.001710984176039</v>
       </c>
       <c r="K17">
-        <v>0.9986839602278511</v>
+        <v>1.01222170315843</v>
       </c>
       <c r="L17">
-        <v>0.9839190693870407</v>
+        <v>0.9986971662828472</v>
       </c>
       <c r="M17">
-        <v>0.9379255007708003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9941493879708032</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9587751828142952</v>
+        <v>0.9743497162263677</v>
       </c>
       <c r="D18">
-        <v>0.9860073914997949</v>
+        <v>0.9990169325859687</v>
       </c>
       <c r="E18">
-        <v>0.9710858542122626</v>
+        <v>0.9853299489467303</v>
       </c>
       <c r="F18">
-        <v>0.9253313868650983</v>
+        <v>0.9811509405465979</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028625590858489</v>
+        <v>1.036712772407344</v>
       </c>
       <c r="J18">
-        <v>0.9874914666726999</v>
+        <v>1.002418053631706</v>
       </c>
       <c r="K18">
-        <v>1.000072107383377</v>
+        <v>1.012852656657097</v>
       </c>
       <c r="L18">
-        <v>0.9854230735670849</v>
+        <v>0.9994068042389096</v>
       </c>
       <c r="M18">
-        <v>0.9405767665477139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9953031635742656</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9594844855201738</v>
+        <v>0.9747462866434574</v>
       </c>
       <c r="D19">
-        <v>0.9865524488667324</v>
+        <v>0.9993005617566967</v>
       </c>
       <c r="E19">
-        <v>0.9716728545703225</v>
+        <v>0.9856424089815955</v>
       </c>
       <c r="F19">
-        <v>0.9263206654351683</v>
+        <v>0.9816173071534101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028887269720178</v>
+        <v>1.036836277235254</v>
       </c>
       <c r="J19">
-        <v>0.9880264333132245</v>
+        <v>1.002658075650468</v>
       </c>
       <c r="K19">
-        <v>1.000541598924238</v>
+        <v>1.013066771026725</v>
       </c>
       <c r="L19">
-        <v>0.9859318671029493</v>
+        <v>0.9996477602312849</v>
       </c>
       <c r="M19">
-        <v>0.9414729733798267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9956947844440387</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9562903775988931</v>
+        <v>0.9729660780902462</v>
       </c>
       <c r="D20">
-        <v>0.9840984310781625</v>
+        <v>0.9980275326542138</v>
       </c>
       <c r="E20">
-        <v>0.9690302870018286</v>
+        <v>0.9842404083258811</v>
       </c>
       <c r="F20">
-        <v>0.9218624393239102</v>
+        <v>0.9795235856581964</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027707626560131</v>
+        <v>1.036280747562088</v>
       </c>
       <c r="J20">
-        <v>0.9856168053299339</v>
+        <v>1.001580412235501</v>
       </c>
       <c r="K20">
-        <v>0.9984267746025915</v>
+        <v>1.012105154420602</v>
       </c>
       <c r="L20">
-        <v>0.9836404746669315</v>
+        <v>0.998566149661037</v>
       </c>
       <c r="M20">
-        <v>0.9374340483194775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9939363045081371</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9454941275034754</v>
+        <v>0.9670576588713158</v>
       </c>
       <c r="D21">
-        <v>0.9758131972086683</v>
+        <v>0.993806111695124</v>
       </c>
       <c r="E21">
-        <v>0.9601134767813018</v>
+        <v>0.9795988738627839</v>
       </c>
       <c r="F21">
-        <v>0.9067253263009296</v>
+        <v>0.9725707776952088</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023698099726809</v>
+        <v>1.034417402653893</v>
       </c>
       <c r="J21">
-        <v>0.9774617233633299</v>
+        <v>0.9980003052375351</v>
       </c>
       <c r="K21">
-        <v>0.9912677561383525</v>
+        <v>1.008905787072869</v>
       </c>
       <c r="L21">
-        <v>0.9758920738308551</v>
+        <v>0.9949773414645607</v>
       </c>
       <c r="M21">
-        <v>0.9237190520136608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.988091129442202</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9383540325295414</v>
+        <v>0.9632451082928711</v>
       </c>
       <c r="D22">
-        <v>0.9703425665480133</v>
+        <v>0.9910855014775926</v>
       </c>
       <c r="E22">
-        <v>0.9542294113688776</v>
+        <v>0.9766132009205966</v>
       </c>
       <c r="F22">
-        <v>0.8966503664387724</v>
+        <v>0.9680808829061126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02102964298045</v>
+        <v>1.033200274855487</v>
       </c>
       <c r="J22">
-        <v>0.9720603899567549</v>
+        <v>0.9956877834757456</v>
       </c>
       <c r="K22">
-        <v>0.9865253616404395</v>
+        <v>1.006835649261798</v>
       </c>
       <c r="L22">
-        <v>0.970765594181714</v>
+        <v>0.9926626408642336</v>
       </c>
       <c r="M22">
-        <v>0.9145905725748081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9843123388572242</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9421750875829183</v>
+        <v>0.9652758176684941</v>
       </c>
       <c r="D23">
-        <v>0.9732692791224603</v>
+        <v>0.9925342515562001</v>
       </c>
       <c r="E23">
-        <v>0.957376991137333</v>
+        <v>0.9782025729622226</v>
       </c>
       <c r="F23">
-        <v>0.9020488019505335</v>
+        <v>0.9704727244894344</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02245920787238</v>
+        <v>1.033849929572093</v>
       </c>
       <c r="J23">
-        <v>0.9749516767193953</v>
+        <v>0.9969197269919992</v>
       </c>
       <c r="K23">
-        <v>0.9890639616727021</v>
+        <v>1.007938792998504</v>
       </c>
       <c r="L23">
-        <v>0.9735092112764591</v>
+        <v>0.9938954188807524</v>
       </c>
       <c r="M23">
-        <v>0.9194817811876578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9863257435838444</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9564659423157755</v>
+        <v>0.9730635515716197</v>
       </c>
       <c r="D24">
-        <v>0.984233285107577</v>
+        <v>0.9980972235398713</v>
       </c>
       <c r="E24">
-        <v>0.9691754832106744</v>
+        <v>0.9843171311632826</v>
       </c>
       <c r="F24">
-        <v>0.9221077122670625</v>
+        <v>0.9796382384856631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027772548892501</v>
+        <v>1.036311238624373</v>
       </c>
       <c r="J24">
-        <v>0.985749289527504</v>
+        <v>1.001639431829282</v>
       </c>
       <c r="K24">
-        <v>0.9985430573886378</v>
+        <v>1.012157836666122</v>
       </c>
       <c r="L24">
-        <v>0.983766435124351</v>
+        <v>0.9986253691165264</v>
       </c>
       <c r="M24">
-        <v>0.93765626121531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9940326207763734</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9717385522833341</v>
+        <v>0.981707672587298</v>
       </c>
       <c r="D25">
-        <v>0.9959775136121418</v>
+        <v>1.004282821637246</v>
       </c>
       <c r="E25">
-        <v>0.9818297236520641</v>
+        <v>0.9911406814623392</v>
       </c>
       <c r="F25">
-        <v>0.9433501001485948</v>
+        <v>0.9898000936407119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033380562836328</v>
+        <v>1.038979616837731</v>
       </c>
       <c r="J25">
-        <v>0.9972559508277479</v>
+        <v>1.006866727426666</v>
       </c>
       <c r="K25">
-        <v>1.008638596100164</v>
+        <v>1.016815014148638</v>
       </c>
       <c r="L25">
-        <v>0.9947168146519131</v>
+        <v>1.003878101619505</v>
       </c>
       <c r="M25">
-        <v>0.9568964706870988</v>
+        <v>1.002558840949557</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9883169833128669</v>
+        <v>1.019738287951536</v>
       </c>
       <c r="D2">
-        <v>1.009017903519744</v>
+        <v>1.025030341685802</v>
       </c>
       <c r="E2">
-        <v>0.9963847345116078</v>
+        <v>1.020836431697836</v>
       </c>
       <c r="F2">
-        <v>0.9975632322784099</v>
+        <v>1.030944436962417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04096685621361</v>
+        <v>1.029496139713008</v>
       </c>
       <c r="J2">
-        <v>1.010852836372217</v>
+        <v>1.02493935506123</v>
       </c>
       <c r="K2">
-        <v>1.020353018149685</v>
+        <v>1.027857106925973</v>
       </c>
       <c r="L2">
-        <v>1.007894666569465</v>
+        <v>1.023675539495702</v>
       </c>
       <c r="M2">
-        <v>1.00905661986194</v>
+        <v>1.033753982721449</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9929646367831181</v>
+        <v>1.020703686673238</v>
       </c>
       <c r="D3">
-        <v>1.012349381313163</v>
+        <v>1.025726643926147</v>
       </c>
       <c r="E3">
-        <v>1.000086690277572</v>
+        <v>1.021655332347685</v>
       </c>
       <c r="F3">
-        <v>1.003019541230735</v>
+        <v>1.032136402432163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042332581709041</v>
+        <v>1.029689213294663</v>
       </c>
       <c r="J3">
-        <v>1.013648947790226</v>
+        <v>1.025541555563745</v>
       </c>
       <c r="K3">
-        <v>1.02282665081231</v>
+        <v>1.028360927276578</v>
       </c>
       <c r="L3">
-        <v>1.010718462005549</v>
+        <v>1.024300730009214</v>
       </c>
       <c r="M3">
-        <v>1.013613931708642</v>
+        <v>1.034753379959491</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9959062197391827</v>
+        <v>1.021328463415898</v>
       </c>
       <c r="D4">
-        <v>1.014458310612638</v>
+        <v>1.026176907473451</v>
       </c>
       <c r="E4">
-        <v>1.002436024241195</v>
+        <v>1.022185701889502</v>
       </c>
       <c r="F4">
-        <v>1.006472011252077</v>
+        <v>1.032907738130817</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043181965962655</v>
+        <v>1.029812313717949</v>
       </c>
       <c r="J4">
-        <v>1.01541522772641</v>
+        <v>1.025930745148472</v>
       </c>
       <c r="K4">
-        <v>1.024385313018998</v>
+        <v>1.028685970249506</v>
       </c>
       <c r="L4">
-        <v>1.012505137243404</v>
+        <v>1.024705110954109</v>
       </c>
       <c r="M4">
-        <v>1.016492947372888</v>
+        <v>1.035399548077042</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9971277080612969</v>
+        <v>1.021591142922445</v>
       </c>
       <c r="D5">
-        <v>1.015334067652191</v>
+        <v>1.026366127659805</v>
       </c>
       <c r="E5">
-        <v>1.003413046199821</v>
+        <v>1.022408784695843</v>
       </c>
       <c r="F5">
-        <v>1.0079054681833</v>
+        <v>1.033232021099601</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043531019660986</v>
+        <v>1.029863626293857</v>
       </c>
       <c r="J5">
-        <v>1.016147816815962</v>
+        <v>1.026094246310486</v>
       </c>
       <c r="K5">
-        <v>1.025030830334265</v>
+        <v>1.028822387181625</v>
       </c>
       <c r="L5">
-        <v>1.01324688164879</v>
+        <v>1.024875073954772</v>
       </c>
       <c r="M5">
-        <v>1.01768717767394</v>
+        <v>1.035671075563872</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9973319292873002</v>
+        <v>1.021635249326209</v>
       </c>
       <c r="D6">
-        <v>1.015480485674683</v>
+        <v>1.026397894390559</v>
       </c>
       <c r="E6">
-        <v>1.003576479718348</v>
+        <v>1.022446248024103</v>
       </c>
       <c r="F6">
-        <v>1.008145119434929</v>
+        <v>1.033286470437726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043589161944906</v>
+        <v>1.029872216153353</v>
       </c>
       <c r="J6">
-        <v>1.016270247441953</v>
+        <v>1.026121692165339</v>
       </c>
       <c r="K6">
-        <v>1.025138652456352</v>
+        <v>1.028845278610152</v>
       </c>
       <c r="L6">
-        <v>1.013370883209033</v>
+        <v>1.024903609199129</v>
       </c>
       <c r="M6">
-        <v>1.017886766969212</v>
+        <v>1.035716659099356</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9959226001099601</v>
+        <v>1.021331973261005</v>
       </c>
       <c r="D7">
-        <v>1.01447005464244</v>
+        <v>1.026179436121618</v>
       </c>
       <c r="E7">
-        <v>1.002449120550541</v>
+        <v>1.022188682280391</v>
       </c>
       <c r="F7">
-        <v>1.006491234798424</v>
+        <v>1.032912071162373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043186661331414</v>
+        <v>1.029813001084054</v>
       </c>
       <c r="J7">
-        <v>1.015425055300701</v>
+        <v>1.025932930308209</v>
       </c>
       <c r="K7">
-        <v>1.024393976359383</v>
+        <v>1.028687793968335</v>
       </c>
       <c r="L7">
-        <v>1.012515084884594</v>
+        <v>1.024707382161128</v>
       </c>
       <c r="M7">
-        <v>1.016508967235537</v>
+        <v>1.035403176718142</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9899016611275573</v>
+        <v>1.020064528193567</v>
       </c>
       <c r="D8">
-        <v>1.010153695371182</v>
+        <v>1.025265719823458</v>
       </c>
       <c r="E8">
-        <v>0.9976456123018275</v>
+        <v>1.021113081816248</v>
       </c>
       <c r="F8">
-        <v>0.9994238547140044</v>
+        <v>1.03134725628497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041435637017876</v>
+        <v>1.029561768690441</v>
       </c>
       <c r="J8">
-        <v>1.011806905906198</v>
+        <v>1.025142969431612</v>
       </c>
       <c r="K8">
-        <v>1.021197862761157</v>
+        <v>1.028027574234044</v>
       </c>
       <c r="L8">
-        <v>1.008857569996413</v>
+        <v>1.023886858112236</v>
       </c>
       <c r="M8">
-        <v>1.010611635913294</v>
+        <v>1.034091839153248</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9787600997153509</v>
+        <v>1.017831904535958</v>
       </c>
       <c r="D9">
-        <v>1.00217249924746</v>
+        <v>1.02365345532043</v>
       </c>
       <c r="E9">
-        <v>0.9888095135953621</v>
+        <v>1.019221498950827</v>
       </c>
       <c r="F9">
-        <v>0.986336200885143</v>
+        <v>1.028590248579319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038077962439929</v>
+        <v>1.029105061681927</v>
       </c>
       <c r="J9">
-        <v>1.005085851493501</v>
+        <v>1.023747348534171</v>
       </c>
       <c r="K9">
-        <v>1.015230427230318</v>
+        <v>1.026856842232393</v>
       </c>
       <c r="L9">
-        <v>1.002086795929663</v>
+        <v>1.02243979969793</v>
       </c>
       <c r="M9">
-        <v>0.9996549233092444</v>
+        <v>1.031777188906146</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9709323446697894</v>
+        <v>1.016344030523937</v>
       </c>
       <c r="D10">
-        <v>0.996573813427136</v>
+        <v>1.022577206797014</v>
       </c>
       <c r="E10">
-        <v>0.9826407384743042</v>
+        <v>1.01796302558609</v>
       </c>
       <c r="F10">
-        <v>0.9771310525306325</v>
+        <v>1.026752478039145</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035642672814127</v>
+        <v>1.02879120178292</v>
       </c>
       <c r="J10">
-        <v>1.000348665827502</v>
+        <v>1.022814539440734</v>
       </c>
       <c r="K10">
-        <v>1.011005205509593</v>
+        <v>1.026071459071635</v>
       </c>
       <c r="L10">
-        <v>0.9973306564524527</v>
+        <v>1.021474330670372</v>
       </c>
       <c r="M10">
-        <v>0.9919258649249161</v>
+        <v>1.030231445588204</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.967437549054314</v>
+        <v>1.015699896425218</v>
       </c>
       <c r="D11">
-        <v>0.9940773503035361</v>
+        <v>1.02211085804248</v>
       </c>
       <c r="E11">
-        <v>0.9798967739009049</v>
+        <v>1.017418715576875</v>
       </c>
       <c r="F11">
-        <v>0.9730180067358305</v>
+        <v>1.025956750587813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034538069393961</v>
+        <v>1.028653075352977</v>
       </c>
       <c r="J11">
-        <v>0.9982306356387594</v>
+        <v>1.022410060726851</v>
       </c>
       <c r="K11">
-        <v>1.009111830167126</v>
+        <v>1.025730226370975</v>
       </c>
       <c r="L11">
-        <v>0.9952080335991904</v>
+        <v>1.021056098102066</v>
       </c>
       <c r="M11">
-        <v>0.9884673563472887</v>
+        <v>1.029561489867695</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9661226340028196</v>
+        <v>1.01546065530643</v>
       </c>
       <c r="D12">
-        <v>0.9931386255329842</v>
+        <v>1.021937587281706</v>
       </c>
       <c r="E12">
-        <v>0.9788659623088346</v>
+        <v>1.01721662812849</v>
       </c>
       <c r="F12">
-        <v>0.971469895651086</v>
+        <v>1.025661187059344</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034119924830627</v>
+        <v>1.028601435420978</v>
       </c>
       <c r="J12">
-        <v>0.9974333167267994</v>
+        <v>1.022259734669951</v>
       </c>
       <c r="K12">
-        <v>1.008398469908959</v>
+        <v>1.025603304157358</v>
       </c>
       <c r="L12">
-        <v>0.9944095754280258</v>
+        <v>1.020900721670036</v>
       </c>
       <c r="M12">
-        <v>0.9871648885778613</v>
+        <v>1.029312541983181</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9664054640335046</v>
+        <v>1.015511972477741</v>
       </c>
       <c r="D13">
-        <v>0.9933405121039256</v>
+        <v>1.021974756608696</v>
       </c>
       <c r="E13">
-        <v>0.9790876097238992</v>
+        <v>1.017259972327398</v>
       </c>
       <c r="F13">
-        <v>0.9718029123230654</v>
+        <v>1.025724586223156</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034209978671429</v>
+        <v>1.028612527453252</v>
       </c>
       <c r="J13">
-        <v>0.9976048328317554</v>
+        <v>1.022291983943561</v>
       </c>
       <c r="K13">
-        <v>1.008551952325419</v>
+        <v>1.025630537231348</v>
       </c>
       <c r="L13">
-        <v>0.9945813098607932</v>
+        <v>1.020934051620927</v>
       </c>
       <c r="M13">
-        <v>0.987445096385953</v>
+        <v>1.029365946525159</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9673292061982209</v>
+        <v>1.015680120291892</v>
       </c>
       <c r="D14">
-        <v>0.9939999916487204</v>
+        <v>1.022096536402675</v>
       </c>
       <c r="E14">
-        <v>0.9798118067978144</v>
+        <v>1.017402009052942</v>
       </c>
       <c r="F14">
-        <v>0.9728904619094237</v>
+        <v>1.0259323191156</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0345036674098</v>
+        <v>1.028648813583898</v>
       </c>
       <c r="J14">
-        <v>0.998164948354834</v>
+        <v>1.022397636452606</v>
       </c>
       <c r="K14">
-        <v>1.009053072092662</v>
+        <v>1.025719738471045</v>
       </c>
       <c r="L14">
-        <v>0.9951422404392566</v>
+        <v>1.021043255169879</v>
       </c>
       <c r="M14">
-        <v>0.9883600638163815</v>
+        <v>1.029540913729659</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9678960988125065</v>
+        <v>1.015783724227671</v>
       </c>
       <c r="D15">
-        <v>0.9944047864218517</v>
+        <v>1.022171562610589</v>
       </c>
       <c r="E15">
-        <v>0.9802564540468128</v>
+        <v>1.01748953498373</v>
       </c>
       <c r="F15">
-        <v>0.9735578026751526</v>
+        <v>1.026060310854499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034683569177182</v>
+        <v>1.028671126468564</v>
       </c>
       <c r="J15">
-        <v>0.998508633709097</v>
+        <v>1.022462721245387</v>
       </c>
       <c r="K15">
-        <v>1.009360478087755</v>
+        <v>1.025774675365807</v>
       </c>
       <c r="L15">
-        <v>0.9954865038096854</v>
+        <v>1.021110535619872</v>
       </c>
       <c r="M15">
-        <v>0.9889214113598302</v>
+        <v>1.029648703995334</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9711619827315046</v>
+        <v>1.016386782233532</v>
       </c>
       <c r="D16">
-        <v>0.9967379258289948</v>
+        <v>1.022608150036919</v>
       </c>
       <c r="E16">
-        <v>0.9828212583519005</v>
+        <v>1.017999162721121</v>
       </c>
       <c r="F16">
-        <v>0.9774012393789768</v>
+        <v>1.026805288607025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035714899463258</v>
+        <v>1.028800321973304</v>
       </c>
       <c r="J16">
-        <v>1.000487778978508</v>
+        <v>1.022841371466759</v>
       </c>
       <c r="K16">
-        <v>1.011129477123368</v>
+        <v>1.026094081242707</v>
       </c>
       <c r="L16">
-        <v>0.9974701525214905</v>
+        <v>1.021502083680832</v>
       </c>
       <c r="M16">
-        <v>0.9921529537117598</v>
+        <v>1.030275894840317</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9731817267829962</v>
+        <v>1.016765098212869</v>
       </c>
       <c r="D17">
-        <v>0.9981817175771198</v>
+        <v>1.022881923152811</v>
       </c>
       <c r="E17">
-        <v>0.9844101551973686</v>
+        <v>1.018319004553044</v>
       </c>
       <c r="F17">
-        <v>0.9797772395595582</v>
+        <v>1.027272603411322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03634819416279</v>
+        <v>1.028880767988118</v>
       </c>
       <c r="J17">
-        <v>1.001710984176039</v>
+        <v>1.023078737447903</v>
       </c>
       <c r="K17">
-        <v>1.01222170315843</v>
+        <v>1.026294126859509</v>
       </c>
       <c r="L17">
-        <v>0.9986971662828472</v>
+        <v>1.021747644121872</v>
       </c>
       <c r="M17">
-        <v>0.9941493879708032</v>
+        <v>1.030669143713461</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9743497162263677</v>
+        <v>1.016985775589159</v>
       </c>
       <c r="D18">
-        <v>0.9990169325859687</v>
+        <v>1.02304157886023</v>
       </c>
       <c r="E18">
-        <v>0.9853299489467303</v>
+        <v>1.018505622386643</v>
       </c>
       <c r="F18">
-        <v>0.9811509405465979</v>
+        <v>1.027545184080056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036712772407344</v>
+        <v>1.028927476274301</v>
       </c>
       <c r="J18">
-        <v>1.002418053631706</v>
+        <v>1.023217134349092</v>
       </c>
       <c r="K18">
-        <v>1.012852656657097</v>
+        <v>1.02641069844922</v>
       </c>
       <c r="L18">
-        <v>0.9994068042389096</v>
+        <v>1.021890858152786</v>
       </c>
       <c r="M18">
-        <v>0.9953031635742656</v>
+        <v>1.03089845754314</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9747462866434574</v>
+        <v>1.01706102291337</v>
       </c>
       <c r="D19">
-        <v>0.9993005617566967</v>
+        <v>1.023096011956427</v>
       </c>
       <c r="E19">
-        <v>0.9856424089815955</v>
+        <v>1.018569264314186</v>
       </c>
       <c r="F19">
-        <v>0.9816173071534101</v>
+        <v>1.027638127722175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036836277235254</v>
+        <v>1.028943366196717</v>
       </c>
       <c r="J19">
-        <v>1.002658075650468</v>
+        <v>1.023264314831975</v>
       </c>
       <c r="K19">
-        <v>1.013066771026725</v>
+        <v>1.026450427396257</v>
       </c>
       <c r="L19">
-        <v>0.9996477602312849</v>
+        <v>1.021939687499553</v>
       </c>
       <c r="M19">
-        <v>0.9956947844440387</v>
+        <v>1.030976637203831</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9729660780902462</v>
+        <v>1.0167245072393</v>
       </c>
       <c r="D20">
-        <v>0.9980275326542138</v>
+        <v>1.022852553141933</v>
       </c>
       <c r="E20">
-        <v>0.9842404083258811</v>
+        <v>1.018284682390857</v>
       </c>
       <c r="F20">
-        <v>0.9795235856581964</v>
+        <v>1.027222464563034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036280747562088</v>
+        <v>1.02887215907753</v>
       </c>
       <c r="J20">
-        <v>1.001580412235501</v>
+        <v>1.023053275975167</v>
       </c>
       <c r="K20">
-        <v>1.012105154420602</v>
+        <v>1.026272675400666</v>
       </c>
       <c r="L20">
-        <v>0.998566149661037</v>
+        <v>1.021721299587775</v>
       </c>
       <c r="M20">
-        <v>0.9939363045081371</v>
+        <v>1.030626958204818</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9670576588713158</v>
+        <v>1.015630604426773</v>
       </c>
       <c r="D21">
-        <v>0.993806111695124</v>
+        <v>1.022060676608264</v>
       </c>
       <c r="E21">
-        <v>0.9795988738627839</v>
+        <v>1.017360180189406</v>
       </c>
       <c r="F21">
-        <v>0.9725707776952088</v>
+        <v>1.025871146822926</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034417402653893</v>
+        <v>1.02863813742968</v>
       </c>
       <c r="J21">
-        <v>0.9980003052375351</v>
+        <v>1.022366526755538</v>
       </c>
       <c r="K21">
-        <v>1.008905787072869</v>
+        <v>1.025693475705704</v>
       </c>
       <c r="L21">
-        <v>0.9949773414645607</v>
+        <v>1.021011098166544</v>
       </c>
       <c r="M21">
-        <v>0.988091129442202</v>
+        <v>1.029489392917172</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9632451082928711</v>
+        <v>1.014942934119008</v>
       </c>
       <c r="D22">
-        <v>0.9910855014775926</v>
+        <v>1.021562514736038</v>
       </c>
       <c r="E22">
-        <v>0.9766132009205966</v>
+        <v>1.016779450451999</v>
       </c>
       <c r="F22">
-        <v>0.9680808829061126</v>
+        <v>1.025021548684837</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033200274855487</v>
+        <v>1.028489068649543</v>
       </c>
       <c r="J22">
-        <v>0.9956877834757456</v>
+        <v>1.021934250689791</v>
       </c>
       <c r="K22">
-        <v>1.006835649261798</v>
+        <v>1.025328308094179</v>
       </c>
       <c r="L22">
-        <v>0.9926626408642336</v>
+        <v>1.020564414818026</v>
       </c>
       <c r="M22">
-        <v>0.9843123388572242</v>
+        <v>1.028773601876947</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9652758176684941</v>
+        <v>1.015307470698635</v>
       </c>
       <c r="D23">
-        <v>0.9925342515562001</v>
+        <v>1.021826625786133</v>
       </c>
       <c r="E23">
-        <v>0.9782025729622226</v>
+        <v>1.01708725468484</v>
       </c>
       <c r="F23">
-        <v>0.9704727244894344</v>
+        <v>1.025471934266202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033849929572093</v>
+        <v>1.02856827566133</v>
       </c>
       <c r="J23">
-        <v>0.9969197269919992</v>
+        <v>1.02216345467964</v>
       </c>
       <c r="K23">
-        <v>1.007938792998504</v>
+        <v>1.02552198512141</v>
       </c>
       <c r="L23">
-        <v>0.9938954188807524</v>
+        <v>1.020801224301613</v>
       </c>
       <c r="M23">
-        <v>0.9863257435838444</v>
+        <v>1.02915310938299</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9730635515716197</v>
+        <v>1.016742848515645</v>
       </c>
       <c r="D24">
-        <v>0.9980972235398713</v>
+        <v>1.022865824283057</v>
       </c>
       <c r="E24">
-        <v>0.9843171311632826</v>
+        <v>1.018300190914733</v>
       </c>
       <c r="F24">
-        <v>0.9796382384856631</v>
+        <v>1.027245120138136</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036311238624373</v>
+        <v>1.028876049736453</v>
       </c>
       <c r="J24">
-        <v>1.001639431829282</v>
+        <v>1.023064781087574</v>
       </c>
       <c r="K24">
-        <v>1.012157836666122</v>
+        <v>1.026282368736472</v>
       </c>
       <c r="L24">
-        <v>0.9986253691165264</v>
+        <v>1.021733203601941</v>
       </c>
       <c r="M24">
-        <v>0.9940326207763734</v>
+        <v>1.030646020210325</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.981707672587298</v>
+        <v>1.01840899721076</v>
       </c>
       <c r="D25">
-        <v>1.004282821637246</v>
+        <v>1.024070516430961</v>
       </c>
       <c r="E25">
-        <v>0.9911406814623392</v>
+        <v>1.019710067185877</v>
       </c>
       <c r="F25">
-        <v>0.9898000936407119</v>
+        <v>1.029302957469763</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038979616837731</v>
+        <v>1.029224788115334</v>
       </c>
       <c r="J25">
-        <v>1.006866727426666</v>
+        <v>1.024108574423847</v>
       </c>
       <c r="K25">
-        <v>1.016815014148638</v>
+        <v>1.027160370238551</v>
       </c>
       <c r="L25">
-        <v>1.003878101619505</v>
+        <v>1.022814036219345</v>
       </c>
       <c r="M25">
-        <v>1.002558840949557</v>
+        <v>1.032376046083951</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019738287951536</v>
+        <v>0.988316983312867</v>
       </c>
       <c r="D2">
-        <v>1.025030341685802</v>
+        <v>1.009017903519744</v>
       </c>
       <c r="E2">
-        <v>1.020836431697836</v>
+        <v>0.9963847345116081</v>
       </c>
       <c r="F2">
-        <v>1.030944436962417</v>
+        <v>0.9975632322784102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029496139713008</v>
+        <v>1.04096685621361</v>
       </c>
       <c r="J2">
-        <v>1.02493935506123</v>
+        <v>1.010852836372217</v>
       </c>
       <c r="K2">
-        <v>1.027857106925973</v>
+        <v>1.020353018149685</v>
       </c>
       <c r="L2">
-        <v>1.023675539495702</v>
+        <v>1.007894666569466</v>
       </c>
       <c r="M2">
-        <v>1.033753982721449</v>
+        <v>1.00905661986194</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020703686673238</v>
+        <v>0.9929646367831175</v>
       </c>
       <c r="D3">
-        <v>1.025726643926147</v>
+        <v>1.012349381313163</v>
       </c>
       <c r="E3">
-        <v>1.021655332347685</v>
+        <v>1.000086690277571</v>
       </c>
       <c r="F3">
-        <v>1.032136402432163</v>
+        <v>1.003019541230735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029689213294663</v>
+        <v>1.04233258170904</v>
       </c>
       <c r="J3">
-        <v>1.025541555563745</v>
+        <v>1.013648947790225</v>
       </c>
       <c r="K3">
-        <v>1.028360927276578</v>
+        <v>1.022826650812309</v>
       </c>
       <c r="L3">
-        <v>1.024300730009214</v>
+        <v>1.010718462005548</v>
       </c>
       <c r="M3">
-        <v>1.034753379959491</v>
+        <v>1.013613931708641</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021328463415898</v>
+        <v>0.995906219739183</v>
       </c>
       <c r="D4">
-        <v>1.026176907473451</v>
+        <v>1.014458310612638</v>
       </c>
       <c r="E4">
-        <v>1.022185701889502</v>
+        <v>1.002436024241195</v>
       </c>
       <c r="F4">
-        <v>1.032907738130817</v>
+        <v>1.006472011252077</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029812313717949</v>
+        <v>1.043181965962655</v>
       </c>
       <c r="J4">
-        <v>1.025930745148472</v>
+        <v>1.01541522772641</v>
       </c>
       <c r="K4">
-        <v>1.028685970249506</v>
+        <v>1.024385313018998</v>
       </c>
       <c r="L4">
-        <v>1.024705110954109</v>
+        <v>1.012505137243404</v>
       </c>
       <c r="M4">
-        <v>1.035399548077042</v>
+        <v>1.016492947372888</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021591142922445</v>
+        <v>0.9971277080612968</v>
       </c>
       <c r="D5">
-        <v>1.026366127659805</v>
+        <v>1.015334067652191</v>
       </c>
       <c r="E5">
-        <v>1.022408784695843</v>
+        <v>1.003413046199821</v>
       </c>
       <c r="F5">
-        <v>1.033232021099601</v>
+        <v>1.007905468183299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029863626293857</v>
+        <v>1.043531019660985</v>
       </c>
       <c r="J5">
-        <v>1.026094246310486</v>
+        <v>1.016147816815961</v>
       </c>
       <c r="K5">
-        <v>1.028822387181625</v>
+        <v>1.025030830334265</v>
       </c>
       <c r="L5">
-        <v>1.024875073954772</v>
+        <v>1.01324688164879</v>
       </c>
       <c r="M5">
-        <v>1.035671075563872</v>
+        <v>1.017687177673939</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021635249326209</v>
+        <v>0.9973319292873005</v>
       </c>
       <c r="D6">
-        <v>1.026397894390559</v>
+        <v>1.015480485674683</v>
       </c>
       <c r="E6">
-        <v>1.022446248024103</v>
+        <v>1.003576479718349</v>
       </c>
       <c r="F6">
-        <v>1.033286470437726</v>
+        <v>1.008145119434929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029872216153353</v>
+        <v>1.043589161944906</v>
       </c>
       <c r="J6">
-        <v>1.026121692165339</v>
+        <v>1.016270247441953</v>
       </c>
       <c r="K6">
-        <v>1.028845278610152</v>
+        <v>1.025138652456353</v>
       </c>
       <c r="L6">
-        <v>1.024903609199129</v>
+        <v>1.013370883209033</v>
       </c>
       <c r="M6">
-        <v>1.035716659099356</v>
+        <v>1.017886766969213</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021331973261005</v>
+        <v>0.9959226001099596</v>
       </c>
       <c r="D7">
-        <v>1.026179436121618</v>
+        <v>1.01447005464244</v>
       </c>
       <c r="E7">
-        <v>1.022188682280391</v>
+        <v>1.00244912055054</v>
       </c>
       <c r="F7">
-        <v>1.032912071162373</v>
+        <v>1.006491234798423</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029813001084054</v>
+        <v>1.043186661331413</v>
       </c>
       <c r="J7">
-        <v>1.025932930308209</v>
+        <v>1.0154250553007</v>
       </c>
       <c r="K7">
-        <v>1.028687793968335</v>
+        <v>1.024393976359382</v>
       </c>
       <c r="L7">
-        <v>1.024707382161128</v>
+        <v>1.012515084884594</v>
       </c>
       <c r="M7">
-        <v>1.035403176718142</v>
+        <v>1.016508967235537</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020064528193567</v>
+        <v>0.9899016611275573</v>
       </c>
       <c r="D8">
-        <v>1.025265719823458</v>
+        <v>1.010153695371182</v>
       </c>
       <c r="E8">
-        <v>1.021113081816248</v>
+        <v>0.9976456123018275</v>
       </c>
       <c r="F8">
-        <v>1.03134725628497</v>
+        <v>0.999423854714004</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029561768690441</v>
+        <v>1.041435637017876</v>
       </c>
       <c r="J8">
-        <v>1.025142969431612</v>
+        <v>1.011806905906198</v>
       </c>
       <c r="K8">
-        <v>1.028027574234044</v>
+        <v>1.021197862761157</v>
       </c>
       <c r="L8">
-        <v>1.023886858112236</v>
+        <v>1.008857569996413</v>
       </c>
       <c r="M8">
-        <v>1.034091839153248</v>
+        <v>1.010611635913294</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017831904535958</v>
+        <v>0.9787600997153504</v>
       </c>
       <c r="D9">
-        <v>1.02365345532043</v>
+        <v>1.002172499247459</v>
       </c>
       <c r="E9">
-        <v>1.019221498950827</v>
+        <v>0.9888095135953615</v>
       </c>
       <c r="F9">
-        <v>1.028590248579319</v>
+        <v>0.9863362008851426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029105061681927</v>
+        <v>1.038077962439929</v>
       </c>
       <c r="J9">
-        <v>1.023747348534171</v>
+        <v>1.005085851493501</v>
       </c>
       <c r="K9">
-        <v>1.026856842232393</v>
+        <v>1.015230427230317</v>
       </c>
       <c r="L9">
-        <v>1.02243979969793</v>
+        <v>1.002086795929662</v>
       </c>
       <c r="M9">
-        <v>1.031777188906146</v>
+        <v>0.9996549233092442</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016344030523937</v>
+        <v>0.9709323446697891</v>
       </c>
       <c r="D10">
-        <v>1.022577206797014</v>
+        <v>0.9965738134271358</v>
       </c>
       <c r="E10">
-        <v>1.01796302558609</v>
+        <v>0.9826407384743037</v>
       </c>
       <c r="F10">
-        <v>1.026752478039145</v>
+        <v>0.9771310525306323</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02879120178292</v>
+        <v>1.035642672814127</v>
       </c>
       <c r="J10">
-        <v>1.022814539440734</v>
+        <v>1.000348665827502</v>
       </c>
       <c r="K10">
-        <v>1.026071459071635</v>
+        <v>1.011005205509593</v>
       </c>
       <c r="L10">
-        <v>1.021474330670372</v>
+        <v>0.9973306564524522</v>
       </c>
       <c r="M10">
-        <v>1.030231445588204</v>
+        <v>0.9919258649249159</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015699896425218</v>
+        <v>0.967437549054313</v>
       </c>
       <c r="D11">
-        <v>1.02211085804248</v>
+        <v>0.9940773503035349</v>
       </c>
       <c r="E11">
-        <v>1.017418715576875</v>
+        <v>0.9798967739009039</v>
       </c>
       <c r="F11">
-        <v>1.025956750587813</v>
+        <v>0.9730180067358299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028653075352977</v>
+        <v>1.034538069393961</v>
       </c>
       <c r="J11">
-        <v>1.022410060726851</v>
+        <v>0.9982306356387585</v>
       </c>
       <c r="K11">
-        <v>1.025730226370975</v>
+        <v>1.009111830167125</v>
       </c>
       <c r="L11">
-        <v>1.021056098102066</v>
+        <v>0.9952080335991894</v>
       </c>
       <c r="M11">
-        <v>1.029561489867695</v>
+        <v>0.9884673563472882</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01546065530643</v>
+        <v>0.9661226340028193</v>
       </c>
       <c r="D12">
-        <v>1.021937587281706</v>
+        <v>0.9931386255329836</v>
       </c>
       <c r="E12">
-        <v>1.01721662812849</v>
+        <v>0.9788659623088343</v>
       </c>
       <c r="F12">
-        <v>1.025661187059344</v>
+        <v>0.971469895651085</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028601435420978</v>
+        <v>1.034119924830627</v>
       </c>
       <c r="J12">
-        <v>1.022259734669951</v>
+        <v>0.9974333167267989</v>
       </c>
       <c r="K12">
-        <v>1.025603304157358</v>
+        <v>1.008398469908959</v>
       </c>
       <c r="L12">
-        <v>1.020900721670036</v>
+        <v>0.9944095754280254</v>
       </c>
       <c r="M12">
-        <v>1.029312541983181</v>
+        <v>0.9871648885778604</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015511972477741</v>
+        <v>0.9664054640335056</v>
       </c>
       <c r="D13">
-        <v>1.021974756608696</v>
+        <v>0.9933405121039266</v>
       </c>
       <c r="E13">
-        <v>1.017259972327398</v>
+        <v>0.9790876097239002</v>
       </c>
       <c r="F13">
-        <v>1.025724586223156</v>
+        <v>0.9718029123230667</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028612527453252</v>
+        <v>1.03420997867143</v>
       </c>
       <c r="J13">
-        <v>1.022291983943561</v>
+        <v>0.9976048328317565</v>
       </c>
       <c r="K13">
-        <v>1.025630537231348</v>
+        <v>1.00855195232542</v>
       </c>
       <c r="L13">
-        <v>1.020934051620927</v>
+        <v>0.9945813098607942</v>
       </c>
       <c r="M13">
-        <v>1.029365946525159</v>
+        <v>0.9874450963859541</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015680120291892</v>
+        <v>0.9673292061982199</v>
       </c>
       <c r="D14">
-        <v>1.022096536402675</v>
+        <v>0.9939999916487193</v>
       </c>
       <c r="E14">
-        <v>1.017402009052942</v>
+        <v>0.9798118067978137</v>
       </c>
       <c r="F14">
-        <v>1.0259323191156</v>
+        <v>0.9728904619094229</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028648813583898</v>
+        <v>1.0345036674098</v>
       </c>
       <c r="J14">
-        <v>1.022397636452606</v>
+        <v>0.998164948354833</v>
       </c>
       <c r="K14">
-        <v>1.025719738471045</v>
+        <v>1.009053072092661</v>
       </c>
       <c r="L14">
-        <v>1.021043255169879</v>
+        <v>0.9951422404392557</v>
       </c>
       <c r="M14">
-        <v>1.029540913729659</v>
+        <v>0.9883600638163806</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015783724227671</v>
+        <v>0.967896098812507</v>
       </c>
       <c r="D15">
-        <v>1.022171562610589</v>
+        <v>0.9944047864218521</v>
       </c>
       <c r="E15">
-        <v>1.01748953498373</v>
+        <v>0.9802564540468134</v>
       </c>
       <c r="F15">
-        <v>1.026060310854499</v>
+        <v>0.9735578026751533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028671126468564</v>
+        <v>1.034683569177182</v>
       </c>
       <c r="J15">
-        <v>1.022462721245387</v>
+        <v>0.9985086337090977</v>
       </c>
       <c r="K15">
-        <v>1.025774675365807</v>
+        <v>1.009360478087755</v>
       </c>
       <c r="L15">
-        <v>1.021110535619872</v>
+        <v>0.995486503809686</v>
       </c>
       <c r="M15">
-        <v>1.029648703995334</v>
+        <v>0.9889214113598309</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016386782233532</v>
+        <v>0.9711619827315047</v>
       </c>
       <c r="D16">
-        <v>1.022608150036919</v>
+        <v>0.9967379258289949</v>
       </c>
       <c r="E16">
-        <v>1.017999162721121</v>
+        <v>0.9828212583519003</v>
       </c>
       <c r="F16">
-        <v>1.026805288607025</v>
+        <v>0.9774012393789768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028800321973304</v>
+        <v>1.035714899463258</v>
       </c>
       <c r="J16">
-        <v>1.022841371466759</v>
+        <v>1.000487778978508</v>
       </c>
       <c r="K16">
-        <v>1.026094081242707</v>
+        <v>1.011129477123368</v>
       </c>
       <c r="L16">
-        <v>1.021502083680832</v>
+        <v>0.9974701525214904</v>
       </c>
       <c r="M16">
-        <v>1.030275894840317</v>
+        <v>0.9921529537117598</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016765098212869</v>
+        <v>0.9731817267829956</v>
       </c>
       <c r="D17">
-        <v>1.022881923152811</v>
+        <v>0.9981817175771194</v>
       </c>
       <c r="E17">
-        <v>1.018319004553044</v>
+        <v>0.9844101551973674</v>
       </c>
       <c r="F17">
-        <v>1.027272603411322</v>
+        <v>0.9797772395595579</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028880767988118</v>
+        <v>1.03634819416279</v>
       </c>
       <c r="J17">
-        <v>1.023078737447903</v>
+        <v>1.001710984176038</v>
       </c>
       <c r="K17">
-        <v>1.026294126859509</v>
+        <v>1.01222170315843</v>
       </c>
       <c r="L17">
-        <v>1.021747644121872</v>
+        <v>0.9986971662828462</v>
       </c>
       <c r="M17">
-        <v>1.030669143713461</v>
+        <v>0.9941493879708029</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016985775589159</v>
+        <v>0.9743497162263675</v>
       </c>
       <c r="D18">
-        <v>1.02304157886023</v>
+        <v>0.9990169325859688</v>
       </c>
       <c r="E18">
-        <v>1.018505622386643</v>
+        <v>0.98532994894673</v>
       </c>
       <c r="F18">
-        <v>1.027545184080056</v>
+        <v>0.9811509405465975</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028927476274301</v>
+        <v>1.036712772407344</v>
       </c>
       <c r="J18">
-        <v>1.023217134349092</v>
+        <v>1.002418053631706</v>
       </c>
       <c r="K18">
-        <v>1.02641069844922</v>
+        <v>1.012852656657097</v>
       </c>
       <c r="L18">
-        <v>1.021890858152786</v>
+        <v>0.9994068042389094</v>
       </c>
       <c r="M18">
-        <v>1.03089845754314</v>
+        <v>0.9953031635742651</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01706102291337</v>
+        <v>0.9747462866434569</v>
       </c>
       <c r="D19">
-        <v>1.023096011956427</v>
+        <v>0.9993005617566965</v>
       </c>
       <c r="E19">
-        <v>1.018569264314186</v>
+        <v>0.9856424089815951</v>
       </c>
       <c r="F19">
-        <v>1.027638127722175</v>
+        <v>0.9816173071534098</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028943366196717</v>
+        <v>1.036836277235254</v>
       </c>
       <c r="J19">
-        <v>1.023264314831975</v>
+        <v>1.002658075650467</v>
       </c>
       <c r="K19">
-        <v>1.026450427396257</v>
+        <v>1.013066771026725</v>
       </c>
       <c r="L19">
-        <v>1.021939687499553</v>
+        <v>0.9996477602312844</v>
       </c>
       <c r="M19">
-        <v>1.030976637203831</v>
+        <v>0.9956947844440385</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0167245072393</v>
+        <v>0.9729660780902463</v>
       </c>
       <c r="D20">
-        <v>1.022852553141933</v>
+        <v>0.9980275326542141</v>
       </c>
       <c r="E20">
-        <v>1.018284682390857</v>
+        <v>0.984240408325881</v>
       </c>
       <c r="F20">
-        <v>1.027222464563034</v>
+        <v>0.9795235856581969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02887215907753</v>
+        <v>1.036280747562088</v>
       </c>
       <c r="J20">
-        <v>1.023053275975167</v>
+        <v>1.001580412235502</v>
       </c>
       <c r="K20">
-        <v>1.026272675400666</v>
+        <v>1.012105154420602</v>
       </c>
       <c r="L20">
-        <v>1.021721299587775</v>
+        <v>0.998566149661037</v>
       </c>
       <c r="M20">
-        <v>1.030626958204818</v>
+        <v>0.9939363045081373</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015630604426773</v>
+        <v>0.9670576588713147</v>
       </c>
       <c r="D21">
-        <v>1.022060676608264</v>
+        <v>0.9938061116951233</v>
       </c>
       <c r="E21">
-        <v>1.017360180189406</v>
+        <v>0.9795988738627828</v>
       </c>
       <c r="F21">
-        <v>1.025871146822926</v>
+        <v>0.9725707776952081</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02863813742968</v>
+        <v>1.034417402653893</v>
       </c>
       <c r="J21">
-        <v>1.022366526755538</v>
+        <v>0.9980003052375342</v>
       </c>
       <c r="K21">
-        <v>1.025693475705704</v>
+        <v>1.008905787072868</v>
       </c>
       <c r="L21">
-        <v>1.021011098166544</v>
+        <v>0.9949773414645595</v>
       </c>
       <c r="M21">
-        <v>1.029489392917172</v>
+        <v>0.9880911294422015</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014942934119008</v>
+        <v>0.96324510829287</v>
       </c>
       <c r="D22">
-        <v>1.021562514736038</v>
+        <v>0.9910855014775918</v>
       </c>
       <c r="E22">
-        <v>1.016779450451999</v>
+        <v>0.9766132009205957</v>
       </c>
       <c r="F22">
-        <v>1.025021548684837</v>
+        <v>0.9680808829061114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028489068649543</v>
+        <v>1.033200274855486</v>
       </c>
       <c r="J22">
-        <v>1.021934250689791</v>
+        <v>0.9956877834757447</v>
       </c>
       <c r="K22">
-        <v>1.025328308094179</v>
+        <v>1.006835649261797</v>
       </c>
       <c r="L22">
-        <v>1.020564414818026</v>
+        <v>0.9926626408642326</v>
       </c>
       <c r="M22">
-        <v>1.028773601876947</v>
+        <v>0.9843123388572231</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015307470698635</v>
+        <v>0.9652758176684936</v>
       </c>
       <c r="D23">
-        <v>1.021826625786133</v>
+        <v>0.9925342515562</v>
       </c>
       <c r="E23">
-        <v>1.01708725468484</v>
+        <v>0.9782025729622221</v>
       </c>
       <c r="F23">
-        <v>1.025471934266202</v>
+        <v>0.9704727244894341</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02856827566133</v>
+        <v>1.033849929572093</v>
       </c>
       <c r="J23">
-        <v>1.02216345467964</v>
+        <v>0.9969197269919986</v>
       </c>
       <c r="K23">
-        <v>1.02552198512141</v>
+        <v>1.007938792998504</v>
       </c>
       <c r="L23">
-        <v>1.020801224301613</v>
+        <v>0.9938954188807521</v>
       </c>
       <c r="M23">
-        <v>1.02915310938299</v>
+        <v>0.9863257435838442</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016742848515645</v>
+        <v>0.9730635515716206</v>
       </c>
       <c r="D24">
-        <v>1.022865824283057</v>
+        <v>0.9980972235398718</v>
       </c>
       <c r="E24">
-        <v>1.018300190914733</v>
+        <v>0.9843171311632831</v>
       </c>
       <c r="F24">
-        <v>1.027245120138136</v>
+        <v>0.9796382384856641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028876049736453</v>
+        <v>1.036311238624373</v>
       </c>
       <c r="J24">
-        <v>1.023064781087574</v>
+        <v>1.001639431829283</v>
       </c>
       <c r="K24">
-        <v>1.026282368736472</v>
+        <v>1.012157836666123</v>
       </c>
       <c r="L24">
-        <v>1.021733203601941</v>
+        <v>0.9986253691165271</v>
       </c>
       <c r="M24">
-        <v>1.030646020210325</v>
+        <v>0.9940326207763746</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01840899721076</v>
+        <v>0.981707672587297</v>
       </c>
       <c r="D25">
-        <v>1.024070516430961</v>
+        <v>1.004282821637245</v>
       </c>
       <c r="E25">
-        <v>1.019710067185877</v>
+        <v>0.9911406814623385</v>
       </c>
       <c r="F25">
-        <v>1.029302957469763</v>
+        <v>0.9898000936407108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029224788115334</v>
+        <v>1.038979616837731</v>
       </c>
       <c r="J25">
-        <v>1.024108574423847</v>
+        <v>1.006866727426665</v>
       </c>
       <c r="K25">
-        <v>1.027160370238551</v>
+        <v>1.016815014148637</v>
       </c>
       <c r="L25">
-        <v>1.022814036219345</v>
+        <v>1.003878101619504</v>
       </c>
       <c r="M25">
-        <v>1.032376046083951</v>
+        <v>1.002558840949556</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.988316983312867</v>
+        <v>1.008890079461381</v>
       </c>
       <c r="D2">
-        <v>1.009017903519744</v>
+        <v>1.026956162485294</v>
       </c>
       <c r="E2">
-        <v>0.9963847345116081</v>
+        <v>1.01411313050857</v>
       </c>
       <c r="F2">
-        <v>0.9975632322784102</v>
+        <v>1.020473459801233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04096685621361</v>
+        <v>1.048983988796058</v>
       </c>
       <c r="J2">
-        <v>1.010852836372217</v>
+        <v>1.03080810260678</v>
       </c>
       <c r="K2">
-        <v>1.020353018149685</v>
+        <v>1.038052306790088</v>
       </c>
       <c r="L2">
-        <v>1.007894666569466</v>
+        <v>1.025379287075031</v>
       </c>
       <c r="M2">
-        <v>1.00905661986194</v>
+        <v>1.031654749155587</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.033624967826144</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03797654628447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9929646367831175</v>
+        <v>1.012510176991994</v>
       </c>
       <c r="D3">
-        <v>1.012349381313163</v>
+        <v>1.029356150405031</v>
       </c>
       <c r="E3">
-        <v>1.000086690277571</v>
+        <v>1.016950551267</v>
       </c>
       <c r="F3">
-        <v>1.003019541230735</v>
+        <v>1.023442283950843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04233258170904</v>
+        <v>1.049963006116523</v>
       </c>
       <c r="J3">
-        <v>1.013648947790225</v>
+        <v>1.032665515912839</v>
       </c>
       <c r="K3">
-        <v>1.022826650812309</v>
+        <v>1.039626702313565</v>
       </c>
       <c r="L3">
-        <v>1.010718462005548</v>
+        <v>1.027371044948583</v>
       </c>
       <c r="M3">
-        <v>1.013613931708641</v>
+        <v>1.033783751585855</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.035309944763733</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039087115459058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.995906219739183</v>
+        <v>1.014809800472269</v>
       </c>
       <c r="D4">
-        <v>1.014458310612638</v>
+        <v>1.030883878653977</v>
       </c>
       <c r="E4">
-        <v>1.002436024241195</v>
+        <v>1.018758440786163</v>
       </c>
       <c r="F4">
-        <v>1.006472011252077</v>
+        <v>1.025335286913852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043181965962655</v>
+        <v>1.050574837640295</v>
       </c>
       <c r="J4">
-        <v>1.01541522772641</v>
+        <v>1.033842109765958</v>
       </c>
       <c r="K4">
-        <v>1.024385313018998</v>
+        <v>1.040623321070332</v>
       </c>
       <c r="L4">
-        <v>1.012505137243404</v>
+        <v>1.028635619212402</v>
       </c>
       <c r="M4">
-        <v>1.016492947372888</v>
+        <v>1.035137258793409</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.036381161945055</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039792707100548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9971277080612968</v>
+        <v>1.015769658172372</v>
       </c>
       <c r="D5">
-        <v>1.015334067652191</v>
+        <v>1.031524389239683</v>
       </c>
       <c r="E5">
-        <v>1.003413046199821</v>
+        <v>1.019514747927702</v>
       </c>
       <c r="F5">
-        <v>1.007905468183299</v>
+        <v>1.026125903043162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043531019660985</v>
+        <v>1.050829269936012</v>
       </c>
       <c r="J5">
-        <v>1.016147816815961</v>
+        <v>1.034333819742608</v>
       </c>
       <c r="K5">
-        <v>1.025030830334265</v>
+        <v>1.041041219907828</v>
       </c>
       <c r="L5">
-        <v>1.01324688164879</v>
+        <v>1.029164374550394</v>
       </c>
       <c r="M5">
-        <v>1.017687177673939</v>
+        <v>1.035701954451254</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.036828083129031</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040095366409823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9973319292873005</v>
+        <v>1.015933968707695</v>
       </c>
       <c r="D6">
-        <v>1.015480485674683</v>
+        <v>1.031636640741957</v>
       </c>
       <c r="E6">
-        <v>1.003576479718349</v>
+        <v>1.019644794654355</v>
       </c>
       <c r="F6">
-        <v>1.008145119434929</v>
+        <v>1.026259881747212</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043589161944906</v>
+        <v>1.050874518751914</v>
       </c>
       <c r="J6">
-        <v>1.016270247441953</v>
+        <v>1.034419671272757</v>
       </c>
       <c r="K6">
-        <v>1.025138652456353</v>
+        <v>1.041116080237305</v>
       </c>
       <c r="L6">
-        <v>1.013370883209033</v>
+        <v>1.029256227113744</v>
       </c>
       <c r="M6">
-        <v>1.017886766969213</v>
+        <v>1.035798034004097</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.03690412403907</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040157041969402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9959226001099596</v>
+        <v>1.01483266389134</v>
       </c>
       <c r="D7">
-        <v>1.01447005464244</v>
+        <v>1.030905986684897</v>
       </c>
       <c r="E7">
-        <v>1.00244912055054</v>
+        <v>1.018777819259399</v>
       </c>
       <c r="F7">
-        <v>1.006491234798423</v>
+        <v>1.025350198373654</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043186661331413</v>
+        <v>1.050585827795626</v>
       </c>
       <c r="J7">
-        <v>1.0154250553007</v>
+        <v>1.033858456314923</v>
       </c>
       <c r="K7">
-        <v>1.024393976359382</v>
+        <v>1.040642300409526</v>
       </c>
       <c r="L7">
-        <v>1.012515084884594</v>
+        <v>1.028651847128085</v>
       </c>
       <c r="M7">
-        <v>1.016508967235537</v>
+        <v>1.035149099001202</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.03639053272955</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039826237422239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899016611275573</v>
+        <v>1.010134991808926</v>
       </c>
       <c r="D8">
-        <v>1.010153695371182</v>
+        <v>1.027789236622831</v>
       </c>
       <c r="E8">
-        <v>0.9976456123018275</v>
+        <v>1.015089520836729</v>
       </c>
       <c r="F8">
-        <v>0.999423854714004</v>
+        <v>1.021488090377974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041435637017876</v>
+        <v>1.049328719400137</v>
       </c>
       <c r="J8">
-        <v>1.011806905906198</v>
+        <v>1.031453229380278</v>
       </c>
       <c r="K8">
-        <v>1.021197862761157</v>
+        <v>1.038605495413137</v>
       </c>
       <c r="L8">
-        <v>1.008857569996413</v>
+        <v>1.026068901828618</v>
       </c>
       <c r="M8">
-        <v>1.010611635913294</v>
+        <v>1.032384650727891</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.034202641324595</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038390615594712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9787600997153504</v>
+        <v>1.001499593847374</v>
       </c>
       <c r="D9">
-        <v>1.002172499247459</v>
+        <v>1.022075873562618</v>
       </c>
       <c r="E9">
-        <v>0.9888095135953615</v>
+        <v>1.008351953226817</v>
       </c>
       <c r="F9">
-        <v>0.9863362008851426</v>
+        <v>1.014452346022908</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038077962439929</v>
+        <v>1.046931890418039</v>
       </c>
       <c r="J9">
-        <v>1.005085851493501</v>
+        <v>1.026999508497745</v>
       </c>
       <c r="K9">
-        <v>1.015230427230317</v>
+        <v>1.034820658307134</v>
       </c>
       <c r="L9">
-        <v>1.002086795929662</v>
+        <v>1.021310963721345</v>
       </c>
       <c r="M9">
-        <v>0.9996549233092442</v>
+        <v>1.027315216344946</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.030190476964216</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035711301572877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9709323446697891</v>
+        <v>0.9955915168056453</v>
       </c>
       <c r="D10">
-        <v>0.9965738134271358</v>
+        <v>1.018197930839823</v>
       </c>
       <c r="E10">
-        <v>0.9826407384743037</v>
+        <v>1.003785981129476</v>
       </c>
       <c r="F10">
-        <v>0.9771310525306323</v>
+        <v>1.009918143731653</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035642672814127</v>
+        <v>1.04526693391003</v>
       </c>
       <c r="J10">
-        <v>1.000348665827502</v>
+        <v>1.023981142015025</v>
       </c>
       <c r="K10">
-        <v>1.011005205509593</v>
+        <v>1.032246209899473</v>
       </c>
       <c r="L10">
-        <v>0.9973306564524522</v>
+        <v>1.018087213328202</v>
       </c>
       <c r="M10">
-        <v>0.9919258649249159</v>
+        <v>1.024110602698805</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027706318147215</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033907839795812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.967437549054313</v>
+        <v>0.9937362683266625</v>
       </c>
       <c r="D11">
-        <v>0.9940773503035349</v>
+        <v>1.017060609584695</v>
       </c>
       <c r="E11">
-        <v>0.9798967739009039</v>
+        <v>1.002452837911805</v>
       </c>
       <c r="F11">
-        <v>0.9730180067358299</v>
+        <v>1.010405436073052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034538069393961</v>
+        <v>1.044923198659567</v>
       </c>
       <c r="J11">
-        <v>0.9982306356387585</v>
+        <v>1.023371967611776</v>
       </c>
       <c r="K11">
-        <v>1.009111830167125</v>
+        <v>1.031667803503879</v>
       </c>
       <c r="L11">
-        <v>0.9952080335991894</v>
+        <v>1.017328645075168</v>
       </c>
       <c r="M11">
-        <v>0.9884673563472882</v>
+        <v>1.025133753245296</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.028957091220317</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033531789624935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9661226340028193</v>
+        <v>0.9932890256968214</v>
       </c>
       <c r="D12">
-        <v>0.9931386255329836</v>
+        <v>1.016816284320489</v>
       </c>
       <c r="E12">
-        <v>0.9788659623088343</v>
+        <v>1.00217710326531</v>
       </c>
       <c r="F12">
-        <v>0.971469895651085</v>
+        <v>1.011411339502875</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034119924830627</v>
+        <v>1.044922117252188</v>
       </c>
       <c r="J12">
-        <v>0.9974333167267989</v>
+        <v>1.023380146884953</v>
       </c>
       <c r="K12">
-        <v>1.008398469908959</v>
+        <v>1.031628249935094</v>
       </c>
       <c r="L12">
-        <v>0.9944095754280254</v>
+        <v>1.017262711936153</v>
       </c>
       <c r="M12">
-        <v>0.9871648885778604</v>
+        <v>1.026323133813945</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030227188841653</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033503823873716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9664054640335056</v>
+        <v>0.9939045206504646</v>
       </c>
       <c r="D13">
-        <v>0.9933405121039266</v>
+        <v>1.017255748210276</v>
       </c>
       <c r="E13">
-        <v>0.9790876097239002</v>
+        <v>1.002703243974842</v>
       </c>
       <c r="F13">
-        <v>0.9718029123230667</v>
+        <v>1.012909228977544</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03420997867143</v>
+        <v>1.045196497510908</v>
       </c>
       <c r="J13">
-        <v>0.9976048328317565</v>
+        <v>1.023875537579519</v>
       </c>
       <c r="K13">
-        <v>1.00855195232542</v>
+        <v>1.032016707686187</v>
       </c>
       <c r="L13">
-        <v>0.9945813098607942</v>
+        <v>1.017734976185779</v>
       </c>
       <c r="M13">
-        <v>0.9874450963859541</v>
+        <v>1.027750000311337</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031634043143012</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033775980122473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,81 +1069,105 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9673292061982199</v>
+        <v>0.9948079882727995</v>
       </c>
       <c r="D14">
-        <v>0.9939999916487193</v>
+        <v>1.017867993676374</v>
       </c>
       <c r="E14">
-        <v>0.9798118067978137</v>
+        <v>1.003427185781879</v>
       </c>
       <c r="F14">
-        <v>0.9728904619094229</v>
+        <v>1.014154525699035</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0345036674098</v>
+        <v>1.045508905712882</v>
       </c>
       <c r="J14">
-        <v>0.998164948354833</v>
+        <v>1.024434332868315</v>
       </c>
       <c r="K14">
-        <v>1.009053072092661</v>
+        <v>1.032477171052785</v>
       </c>
       <c r="L14">
-        <v>0.9951422404392557</v>
+        <v>1.018301642957767</v>
       </c>
       <c r="M14">
-        <v>0.9883600638163806</v>
+        <v>1.028830981066403</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032662849011576</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034102970802867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.967896098812507</v>
+        <v>0.9952714545755132</v>
       </c>
       <c r="D15">
-        <v>0.9944047864218521</v>
+        <v>1.018177280074017</v>
       </c>
       <c r="E15">
-        <v>0.9802564540468134</v>
+        <v>1.003789423074245</v>
       </c>
       <c r="F15">
-        <v>0.9735578026751533</v>
+        <v>1.014613439048765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034683569177182</v>
+        <v>1.045652755440011</v>
       </c>
       <c r="J15">
-        <v>0.9985086337090977</v>
+        <v>1.024689989833759</v>
       </c>
       <c r="K15">
-        <v>1.009360478087755</v>
+        <v>1.032694281975783</v>
       </c>
       <c r="L15">
-        <v>0.995486503809686</v>
+        <v>1.01856869616026</v>
       </c>
       <c r="M15">
-        <v>0.9889214113598309</v>
+        <v>1.029194503937507</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032987898767635</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034262355563598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9711619827315047</v>
+        <v>0.9976396172875467</v>
       </c>
       <c r="D16">
-        <v>0.9967379258289949</v>
+        <v>1.019724783877925</v>
       </c>
       <c r="E16">
-        <v>0.9828212583519003</v>
+        <v>1.005603286559112</v>
       </c>
       <c r="F16">
-        <v>0.9774012393789768</v>
+        <v>1.016285457720225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035714899463258</v>
+        <v>1.046313361553053</v>
       </c>
       <c r="J16">
-        <v>1.000487778978508</v>
+        <v>1.025870112392571</v>
       </c>
       <c r="K16">
-        <v>1.011129477123368</v>
+        <v>1.033711145949296</v>
       </c>
       <c r="L16">
-        <v>0.9974701525214904</v>
+        <v>1.019835720937511</v>
       </c>
       <c r="M16">
-        <v>0.9921529537117598</v>
+        <v>1.03033093654869</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033847217416268</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034984487709752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9731817267829956</v>
+        <v>0.9989920419656939</v>
       </c>
       <c r="D17">
-        <v>0.9981817175771194</v>
+        <v>1.020598658889973</v>
       </c>
       <c r="E17">
-        <v>0.9844101551973674</v>
+        <v>1.00662467838661</v>
       </c>
       <c r="F17">
-        <v>0.9797772395595579</v>
+        <v>1.016921333361284</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03634819416279</v>
+        <v>1.046658076066064</v>
       </c>
       <c r="J17">
-        <v>1.001710984176038</v>
+        <v>1.026489009696103</v>
       </c>
       <c r="K17">
-        <v>1.01222170315843</v>
+        <v>1.034254907761128</v>
       </c>
       <c r="L17">
-        <v>0.9986971662828462</v>
+        <v>1.02051754153647</v>
       </c>
       <c r="M17">
-        <v>0.9941493879708029</v>
+        <v>1.030639035656731</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033961010959499</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035371540008953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9743497162263675</v>
+        <v>0.9995579963774049</v>
       </c>
       <c r="D18">
-        <v>0.9990169325859688</v>
+        <v>1.020938509121105</v>
       </c>
       <c r="E18">
-        <v>0.98532994894673</v>
+        <v>1.007020853089116</v>
       </c>
       <c r="F18">
-        <v>0.9811509405465975</v>
+        <v>1.016558005871308</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036712772407344</v>
+        <v>1.046739670831706</v>
       </c>
       <c r="J18">
-        <v>1.002418053631706</v>
+        <v>1.026637712482935</v>
       </c>
       <c r="K18">
-        <v>1.012852656657097</v>
+        <v>1.034405346160677</v>
       </c>
       <c r="L18">
-        <v>0.9994068042389094</v>
+        <v>1.020719488026332</v>
       </c>
       <c r="M18">
-        <v>0.9953031635742651</v>
+        <v>1.030096918991222</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033293215031286</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035466255380041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9747462866434569</v>
+        <v>0.9993894877702527</v>
       </c>
       <c r="D19">
-        <v>0.9993005617566965</v>
+        <v>1.020787269566971</v>
       </c>
       <c r="E19">
-        <v>0.9856424089815951</v>
+        <v>1.006831841400393</v>
       </c>
       <c r="F19">
-        <v>0.9816173071534098</v>
+        <v>1.015186623525959</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036836277235254</v>
+        <v>1.046576899341618</v>
       </c>
       <c r="J19">
-        <v>1.002658075650467</v>
+        <v>1.026340817129642</v>
       </c>
       <c r="K19">
-        <v>1.013066771026725</v>
+        <v>1.034193908910108</v>
       </c>
       <c r="L19">
-        <v>0.9996477602312844</v>
+        <v>1.020469764835165</v>
       </c>
       <c r="M19">
-        <v>0.9956947844440385</v>
+        <v>1.028685099694062</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031848682379515</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035323165391489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9729660780902463</v>
+        <v>0.9971507154412049</v>
       </c>
       <c r="D20">
-        <v>0.9980275326542141</v>
+        <v>1.01923673472927</v>
       </c>
       <c r="E20">
-        <v>0.984240408325881</v>
+        <v>1.004993080640446</v>
       </c>
       <c r="F20">
-        <v>0.9795235856581969</v>
+        <v>1.011114248038407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036280747562088</v>
+        <v>1.045722317869241</v>
       </c>
       <c r="J20">
-        <v>1.001580412235502</v>
+        <v>1.024791915801947</v>
       </c>
       <c r="K20">
-        <v>1.012105154420602</v>
+        <v>1.032949557870426</v>
       </c>
       <c r="L20">
-        <v>0.998566149661037</v>
+        <v>1.018948697288078</v>
       </c>
       <c r="M20">
-        <v>0.9939363045081373</v>
+        <v>1.02496444207905</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.028371363284895</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03444728889037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9670576588713147</v>
+        <v>0.9925628433058994</v>
       </c>
       <c r="D21">
-        <v>0.9938061116951233</v>
+        <v>1.016215525755663</v>
       </c>
       <c r="E21">
-        <v>0.9795988738627828</v>
+        <v>1.001440831617955</v>
       </c>
       <c r="F21">
-        <v>0.9725707776952081</v>
+        <v>1.007234176411532</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034417402653893</v>
+        <v>1.044373571833037</v>
       </c>
       <c r="J21">
-        <v>0.9980003052375342</v>
+        <v>1.022374833841748</v>
       </c>
       <c r="K21">
-        <v>1.008905787072868</v>
+        <v>1.030896067254295</v>
       </c>
       <c r="L21">
-        <v>0.9949773414645595</v>
+        <v>1.016394958321808</v>
       </c>
       <c r="M21">
-        <v>0.9880911294422015</v>
+        <v>1.022079779096066</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026046906578643</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032998624462701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.96324510829287</v>
+        <v>0.9896563995818493</v>
       </c>
       <c r="D22">
-        <v>0.9910855014775918</v>
+        <v>1.014304547955735</v>
       </c>
       <c r="E22">
-        <v>0.9766132009205957</v>
+        <v>0.9992019220283714</v>
       </c>
       <c r="F22">
-        <v>0.9680808829061114</v>
+        <v>1.00490899130464</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033200274855486</v>
+        <v>1.043516258436268</v>
       </c>
       <c r="J22">
-        <v>0.9956877834757447</v>
+        <v>1.020857393984447</v>
       </c>
       <c r="K22">
-        <v>1.006835649261797</v>
+        <v>1.029597857167309</v>
       </c>
       <c r="L22">
-        <v>0.9926626408642326</v>
+        <v>1.014789205595391</v>
       </c>
       <c r="M22">
-        <v>0.9843123388572231</v>
+        <v>1.020383823376551</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024704642377045</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032067190405224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9652758176684936</v>
+        <v>0.991193678646205</v>
       </c>
       <c r="D23">
-        <v>0.9925342515562</v>
+        <v>1.015308936266816</v>
       </c>
       <c r="E23">
-        <v>0.9782025729622221</v>
+        <v>1.000383878096823</v>
       </c>
       <c r="F23">
-        <v>0.9704727244894341</v>
+        <v>1.006141304527422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033849929572093</v>
+        <v>1.04396666525833</v>
       </c>
       <c r="J23">
-        <v>0.9969197269919986</v>
+        <v>1.021656234894255</v>
       </c>
       <c r="K23">
-        <v>1.007938792998504</v>
+        <v>1.030277166784166</v>
       </c>
       <c r="L23">
-        <v>0.9938954188807521</v>
+        <v>1.015635098850906</v>
       </c>
       <c r="M23">
-        <v>0.9863257435838442</v>
+        <v>1.021282059103434</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025415551397328</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032537833011297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9730635515716206</v>
+        <v>0.9971365677154308</v>
       </c>
       <c r="D24">
-        <v>0.9980972235398718</v>
+        <v>1.019211263224978</v>
       </c>
       <c r="E24">
-        <v>0.9843171311632831</v>
+        <v>1.004970955859427</v>
       </c>
       <c r="F24">
-        <v>0.9796382384856641</v>
+        <v>1.010918920406399</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036311238624373</v>
+        <v>1.045693806350825</v>
       </c>
       <c r="J24">
-        <v>1.001639431829283</v>
+        <v>1.024745290423631</v>
       </c>
       <c r="K24">
-        <v>1.012157836666123</v>
+        <v>1.032909202787206</v>
       </c>
       <c r="L24">
-        <v>0.9986253691165271</v>
+        <v>1.018911334705516</v>
       </c>
       <c r="M24">
-        <v>0.9940326207763746</v>
+        <v>1.024756962982247</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028165758480474</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034391298237983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.981707672587297</v>
+        <v>1.003790344858468</v>
       </c>
       <c r="D25">
-        <v>1.004282821637245</v>
+        <v>1.023598547200078</v>
       </c>
       <c r="E25">
-        <v>0.9911406814623385</v>
+        <v>1.010136209794591</v>
       </c>
       <c r="F25">
-        <v>0.9898000936407108</v>
+        <v>1.016305854056777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038979616837731</v>
+        <v>1.047583926582664</v>
       </c>
       <c r="J25">
-        <v>1.006866727426665</v>
+        <v>1.028190818646638</v>
       </c>
       <c r="K25">
-        <v>1.016815014148637</v>
+        <v>1.035841247223134</v>
       </c>
       <c r="L25">
-        <v>1.003878101619504</v>
+        <v>1.022579185876246</v>
       </c>
       <c r="M25">
-        <v>1.002558840949556</v>
+        <v>1.028656208240281</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.031251796797956</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036461543255952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008890079461381</v>
+        <v>1.008168707819831</v>
       </c>
       <c r="D2">
-        <v>1.026956162485294</v>
+        <v>1.025866413260942</v>
       </c>
       <c r="E2">
-        <v>1.01411313050857</v>
+        <v>1.013501661513003</v>
       </c>
       <c r="F2">
-        <v>1.020473459801233</v>
+        <v>1.020160963183107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048983988796058</v>
+        <v>1.048389770237985</v>
       </c>
       <c r="J2">
-        <v>1.03080810260678</v>
+        <v>1.030107809432962</v>
       </c>
       <c r="K2">
-        <v>1.038052306790088</v>
+        <v>1.036976776276129</v>
       </c>
       <c r="L2">
-        <v>1.025379287075031</v>
+        <v>1.024776047587187</v>
       </c>
       <c r="M2">
-        <v>1.031654749155587</v>
+        <v>1.031346391227816</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033624967826144</v>
+        <v>1.033380920801517</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03797654628447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03722483397956</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021898599720541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012510176991994</v>
+        <v>1.011679077359938</v>
       </c>
       <c r="D3">
-        <v>1.029356150405031</v>
+        <v>1.028104069473951</v>
       </c>
       <c r="E3">
-        <v>1.016950551267</v>
+        <v>1.016241508688184</v>
       </c>
       <c r="F3">
-        <v>1.023442283950843</v>
+        <v>1.023082746107137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049963006116523</v>
+        <v>1.049279042233419</v>
       </c>
       <c r="J3">
-        <v>1.032665515912839</v>
+        <v>1.031856344380091</v>
       </c>
       <c r="K3">
-        <v>1.039626702313565</v>
+        <v>1.038389551201669</v>
       </c>
       <c r="L3">
-        <v>1.027371044948583</v>
+        <v>1.026670709862781</v>
       </c>
       <c r="M3">
-        <v>1.033783751585855</v>
+        <v>1.033428557939992</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.035309944763733</v>
+        <v>1.035028830708753</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039087115459058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038220846244625</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022177029208027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014809800472269</v>
+        <v>1.013909690870525</v>
       </c>
       <c r="D4">
-        <v>1.030883878653977</v>
+        <v>1.029529185798536</v>
       </c>
       <c r="E4">
-        <v>1.018758440786163</v>
+        <v>1.017987984244145</v>
       </c>
       <c r="F4">
-        <v>1.025335286913852</v>
+        <v>1.02494623440301</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050574837640295</v>
+        <v>1.049834061452586</v>
       </c>
       <c r="J4">
-        <v>1.033842109765958</v>
+        <v>1.032964155945733</v>
       </c>
       <c r="K4">
-        <v>1.040623321070332</v>
+        <v>1.039283818240988</v>
       </c>
       <c r="L4">
-        <v>1.028635619212402</v>
+        <v>1.027874051420322</v>
       </c>
       <c r="M4">
-        <v>1.035137258793409</v>
+        <v>1.034752621997127</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.036381161945055</v>
+        <v>1.036076745892015</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039792707100548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038854149048107</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022350799978981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015769658172372</v>
+        <v>1.014840890773559</v>
       </c>
       <c r="D5">
-        <v>1.031524389239683</v>
+        <v>1.030127024107283</v>
       </c>
       <c r="E5">
-        <v>1.019514747927702</v>
+        <v>1.018718765853867</v>
       </c>
       <c r="F5">
-        <v>1.026125903043162</v>
+        <v>1.025724609611619</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050829269936012</v>
+        <v>1.050064838235802</v>
       </c>
       <c r="J5">
-        <v>1.034333819742608</v>
+        <v>1.033427236226993</v>
       </c>
       <c r="K5">
-        <v>1.041041219907828</v>
+        <v>1.039659110595446</v>
       </c>
       <c r="L5">
-        <v>1.029164374550394</v>
+        <v>1.028377330238374</v>
       </c>
       <c r="M5">
-        <v>1.035701954451254</v>
+        <v>1.035305093755056</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.036828083129031</v>
+        <v>1.036513992816532</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040095366409823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039127395280761</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022423629355162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015933968707695</v>
+        <v>1.015000291198078</v>
       </c>
       <c r="D6">
-        <v>1.031636640741957</v>
+        <v>1.030232025779444</v>
       </c>
       <c r="E6">
-        <v>1.019644794654355</v>
+        <v>1.018844422190585</v>
       </c>
       <c r="F6">
-        <v>1.026259881747212</v>
+        <v>1.025856491328224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050874518751914</v>
+        <v>1.050106055190555</v>
       </c>
       <c r="J6">
-        <v>1.034419671272757</v>
+        <v>1.033508181198573</v>
       </c>
       <c r="K6">
-        <v>1.041116080237305</v>
+        <v>1.039726730716532</v>
       </c>
       <c r="L6">
-        <v>1.029256227113744</v>
+        <v>1.028464800392496</v>
       </c>
       <c r="M6">
-        <v>1.035798034004097</v>
+        <v>1.035399078990965</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03690412403907</v>
+        <v>1.036588376239677</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040157041969402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039184822909646</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022437330712136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01483266389134</v>
+        <v>1.013931821643108</v>
       </c>
       <c r="D7">
-        <v>1.030905986684897</v>
+        <v>1.029550396887639</v>
       </c>
       <c r="E7">
-        <v>1.018777819259399</v>
+        <v>1.018006663518133</v>
       </c>
       <c r="F7">
-        <v>1.025350198373654</v>
+        <v>1.024960831105079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050585827795626</v>
+        <v>1.049844521074061</v>
       </c>
       <c r="J7">
-        <v>1.033858456314923</v>
+        <v>1.032979778473267</v>
       </c>
       <c r="K7">
-        <v>1.040642300409526</v>
+        <v>1.039301904841122</v>
       </c>
       <c r="L7">
-        <v>1.028651847128085</v>
+        <v>1.027889584817067</v>
       </c>
       <c r="M7">
-        <v>1.035149099001202</v>
+        <v>1.034764149387423</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03639053272955</v>
+        <v>1.036085869104926</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039826237422239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038889053260507</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022355966243119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010134991808926</v>
+        <v>1.00937561618414</v>
       </c>
       <c r="D8">
-        <v>1.027789236622831</v>
+        <v>1.026643661772739</v>
       </c>
       <c r="E8">
-        <v>1.015089520836729</v>
+        <v>1.014444201274267</v>
       </c>
       <c r="F8">
-        <v>1.021488090377974</v>
+        <v>1.021159283699927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049328719400137</v>
+        <v>1.048703604938418</v>
       </c>
       <c r="J8">
-        <v>1.031453229380278</v>
+        <v>1.030715303848585</v>
       </c>
       <c r="K8">
-        <v>1.038605495413137</v>
+        <v>1.037474428188344</v>
       </c>
       <c r="L8">
-        <v>1.026068901828618</v>
+        <v>1.02543200768714</v>
       </c>
       <c r="M8">
-        <v>1.032384650727891</v>
+        <v>1.032060068364452</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.034202641324595</v>
+        <v>1.033945753829349</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038390615594712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037601908549443</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021999218219387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001499593847374</v>
+        <v>1.001006435401792</v>
       </c>
       <c r="D9">
-        <v>1.022075873562618</v>
+        <v>1.021320508537514</v>
       </c>
       <c r="E9">
-        <v>1.008351953226817</v>
+        <v>1.007942992321819</v>
       </c>
       <c r="F9">
-        <v>1.014452346022908</v>
+        <v>1.014238116137951</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046931890418039</v>
+        <v>1.046522061267438</v>
       </c>
       <c r="J9">
-        <v>1.026999508497745</v>
+        <v>1.026523703829907</v>
       </c>
       <c r="K9">
-        <v>1.034820658307134</v>
+        <v>1.034076893180248</v>
       </c>
       <c r="L9">
-        <v>1.021310963721345</v>
+        <v>1.020908501230949</v>
       </c>
       <c r="M9">
-        <v>1.027315216344946</v>
+        <v>1.02710433759345</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.030190476964216</v>
+        <v>1.030023578118616</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035711301572877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03519616455379</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021313875544351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9955915168056453</v>
+        <v>0.9952821680730104</v>
       </c>
       <c r="D10">
-        <v>1.018197930839823</v>
+        <v>1.017709641162234</v>
       </c>
       <c r="E10">
-        <v>1.003785981129476</v>
+        <v>1.003539235177979</v>
       </c>
       <c r="F10">
-        <v>1.009918143731653</v>
+        <v>1.009783595949992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04526693391003</v>
+        <v>1.045003847026099</v>
       </c>
       <c r="J10">
-        <v>1.023981142015025</v>
+        <v>1.023684226951357</v>
       </c>
       <c r="K10">
-        <v>1.032246209899473</v>
+        <v>1.031766338853992</v>
       </c>
       <c r="L10">
-        <v>1.018087213328202</v>
+        <v>1.01784488032502</v>
       </c>
       <c r="M10">
-        <v>1.024110602698805</v>
+        <v>1.023978423170392</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027706318147215</v>
+        <v>1.027601711700185</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033907839795812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033580979452267</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020841621510593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9937362683266625</v>
+        <v>0.9934612939298626</v>
       </c>
       <c r="D11">
-        <v>1.017060609584695</v>
+        <v>1.016631870050044</v>
       </c>
       <c r="E11">
-        <v>1.002452837911805</v>
+        <v>1.002232844274366</v>
       </c>
       <c r="F11">
-        <v>1.010405436073052</v>
+        <v>1.010286716909913</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044923198659567</v>
+        <v>1.044691492610159</v>
       </c>
       <c r="J11">
-        <v>1.023371967611776</v>
+        <v>1.023108643558668</v>
       </c>
       <c r="K11">
-        <v>1.031667803503879</v>
+        <v>1.031246804836354</v>
       </c>
       <c r="L11">
-        <v>1.017328645075168</v>
+        <v>1.017112774911992</v>
       </c>
       <c r="M11">
-        <v>1.025133753245296</v>
+        <v>1.025017213625665</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.028957091220317</v>
+        <v>1.028864909710925</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033531789624935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033249781139427</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020780900142802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9932890256968214</v>
+        <v>0.9930108228241638</v>
       </c>
       <c r="D12">
-        <v>1.016816284320489</v>
+        <v>1.016390061559552</v>
       </c>
       <c r="E12">
-        <v>1.00217710326531</v>
+        <v>1.001951558799479</v>
       </c>
       <c r="F12">
-        <v>1.011411339502875</v>
+        <v>1.011291879717775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044922117252188</v>
+        <v>1.044690913551506</v>
       </c>
       <c r="J12">
-        <v>1.023380146884953</v>
+        <v>1.023113951159694</v>
       </c>
       <c r="K12">
-        <v>1.031628249935094</v>
+        <v>1.031209849228601</v>
       </c>
       <c r="L12">
-        <v>1.017262711936153</v>
+        <v>1.017041465288714</v>
       </c>
       <c r="M12">
-        <v>1.026323133813945</v>
+        <v>1.026205896160893</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030227188841653</v>
+        <v>1.030134487167955</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033503823873716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033223652767191</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020805501845292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9939045206504646</v>
+        <v>0.993593521465143</v>
       </c>
       <c r="D13">
-        <v>1.017255748210276</v>
+        <v>1.0167878939318</v>
       </c>
       <c r="E13">
-        <v>1.002703243974842</v>
+        <v>1.002446581638821</v>
       </c>
       <c r="F13">
-        <v>1.012909228977544</v>
+        <v>1.01277627270418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045196497510908</v>
+        <v>1.044941825190414</v>
       </c>
       <c r="J13">
-        <v>1.023875537579519</v>
+        <v>1.023577888833833</v>
       </c>
       <c r="K13">
-        <v>1.032016707686187</v>
+        <v>1.031557401597894</v>
       </c>
       <c r="L13">
-        <v>1.017734976185779</v>
+        <v>1.017483181711009</v>
       </c>
       <c r="M13">
-        <v>1.027750000311337</v>
+        <v>1.027619499489015</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031634043143012</v>
+        <v>1.031530880326602</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033775980122473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033466639074311</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020903577693995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,105 +1183,123 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9948079882727995</v>
+        <v>0.9944614188702706</v>
       </c>
       <c r="D14">
-        <v>1.017867993676374</v>
+        <v>1.017351865481659</v>
       </c>
       <c r="E14">
-        <v>1.003427185781879</v>
+        <v>1.003137885301839</v>
       </c>
       <c r="F14">
-        <v>1.014154525699035</v>
+        <v>1.014006735137331</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045508905712882</v>
+        <v>1.045227443054154</v>
       </c>
       <c r="J14">
-        <v>1.024434332868315</v>
+        <v>1.02410242462758</v>
       </c>
       <c r="K14">
-        <v>1.032477171052785</v>
+        <v>1.03197035549792</v>
       </c>
       <c r="L14">
-        <v>1.018301642957767</v>
+        <v>1.018017758856012</v>
       </c>
       <c r="M14">
-        <v>1.028830981066403</v>
+        <v>1.028685881338327</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032662849011576</v>
+        <v>1.03254816113893</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034102970802867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033760172194542</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021004267894868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9952714545755132</v>
+        <v>0.994909109058597</v>
       </c>
       <c r="D15">
-        <v>1.018177280074017</v>
+        <v>1.017638890206342</v>
       </c>
       <c r="E15">
-        <v>1.003789423074245</v>
+        <v>1.003485978416231</v>
       </c>
       <c r="F15">
-        <v>1.014613439048765</v>
+        <v>1.014459002697659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045652755440011</v>
+        <v>1.045359031503307</v>
       </c>
       <c r="J15">
-        <v>1.024689989833759</v>
+        <v>1.024342838346866</v>
       </c>
       <c r="K15">
-        <v>1.032694281975783</v>
+        <v>1.032165532736602</v>
       </c>
       <c r="L15">
-        <v>1.01856869616026</v>
+        <v>1.018270888520679</v>
       </c>
       <c r="M15">
-        <v>1.029194503937507</v>
+        <v>1.029042856936869</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032987898767635</v>
+        <v>1.032868039048963</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034262355563598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033904619654958</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021048035102158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9976396172875467</v>
+        <v>0.9972065382187769</v>
       </c>
       <c r="D16">
-        <v>1.019724783877925</v>
+        <v>1.019082077629336</v>
       </c>
       <c r="E16">
-        <v>1.005603286559112</v>
+        <v>1.005238164736269</v>
       </c>
       <c r="F16">
-        <v>1.016285457720225</v>
+        <v>1.016100828446436</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046313361553053</v>
+        <v>1.045962615812504</v>
       </c>
       <c r="J16">
-        <v>1.025870112392571</v>
+        <v>1.025454286555899</v>
       </c>
       <c r="K16">
-        <v>1.033711145949296</v>
+        <v>1.033079447659137</v>
       </c>
       <c r="L16">
-        <v>1.019835720937511</v>
+        <v>1.019477080473699</v>
       </c>
       <c r="M16">
-        <v>1.03033093654869</v>
+        <v>1.030149495409706</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033847217416268</v>
+        <v>1.03370380468784</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034984487709752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034554260777236</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021233220729472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9989920419656939</v>
+        <v>0.9985228807247536</v>
       </c>
       <c r="D17">
-        <v>1.020598658889973</v>
+        <v>1.019900687625346</v>
       </c>
       <c r="E17">
-        <v>1.00662467838661</v>
+        <v>1.006228851039626</v>
       </c>
       <c r="F17">
-        <v>1.016921333361284</v>
+        <v>1.016721023135212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046658076066064</v>
+        <v>1.046277275526441</v>
       </c>
       <c r="J17">
-        <v>1.026489009696103</v>
+        <v>1.026037941030617</v>
       </c>
       <c r="K17">
-        <v>1.034254907761128</v>
+        <v>1.033568556713039</v>
       </c>
       <c r="L17">
-        <v>1.02051754153647</v>
+        <v>1.02012854031928</v>
       </c>
       <c r="M17">
-        <v>1.030639035656731</v>
+        <v>1.030442089364701</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033961010959499</v>
+        <v>1.033805327194458</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035371540008953</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034902918532597</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021323055370537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9995579963774049</v>
+        <v>0.9990815384772587</v>
       </c>
       <c r="D18">
-        <v>1.020938509121105</v>
+        <v>1.020225392575628</v>
       </c>
       <c r="E18">
-        <v>1.007020853089116</v>
+        <v>1.006620364130684</v>
       </c>
       <c r="F18">
-        <v>1.016558005871308</v>
+        <v>1.016353924923853</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046739670831706</v>
+        <v>1.046351025885978</v>
       </c>
       <c r="J18">
-        <v>1.026637712482935</v>
+        <v>1.026179289143632</v>
       </c>
       <c r="K18">
-        <v>1.034405346160677</v>
+        <v>1.033703908887283</v>
       </c>
       <c r="L18">
-        <v>1.020719488026332</v>
+        <v>1.020325791658786</v>
       </c>
       <c r="M18">
-        <v>1.030096918991222</v>
+        <v>1.029896215454628</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033293215031286</v>
+        <v>1.033134527784709</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035466255380041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034985828461357</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021329436042898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9993894877702527</v>
+        <v>0.9989331313016863</v>
       </c>
       <c r="D19">
-        <v>1.020787269566971</v>
+        <v>1.020097416688331</v>
       </c>
       <c r="E19">
-        <v>1.006831841400393</v>
+        <v>1.006451368263965</v>
       </c>
       <c r="F19">
-        <v>1.015186623525959</v>
+        <v>1.014990160041036</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046576899341618</v>
+        <v>1.046201684101018</v>
       </c>
       <c r="J19">
-        <v>1.026340817129642</v>
+        <v>1.025901640989211</v>
       </c>
       <c r="K19">
-        <v>1.034193908910108</v>
+        <v>1.033515297946398</v>
       </c>
       <c r="L19">
-        <v>1.020469764835165</v>
+        <v>1.020095713171832</v>
       </c>
       <c r="M19">
-        <v>1.028685099694062</v>
+        <v>1.028491881405282</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031848682379515</v>
+        <v>1.031695862680029</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035323165391489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034859505348095</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021260689987683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9971507154412049</v>
+        <v>0.9967918190001734</v>
       </c>
       <c r="D20">
-        <v>1.01923673472927</v>
+        <v>1.018677559463602</v>
       </c>
       <c r="E20">
-        <v>1.004993080640446</v>
+        <v>1.004702456009987</v>
       </c>
       <c r="F20">
-        <v>1.011114248038407</v>
+        <v>1.010958205972838</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045722317869241</v>
+        <v>1.045420168480188</v>
       </c>
       <c r="J20">
-        <v>1.024791915801947</v>
+        <v>1.024446973276711</v>
       </c>
       <c r="K20">
-        <v>1.032949557870426</v>
+        <v>1.032399749100675</v>
       </c>
       <c r="L20">
-        <v>1.018948697288078</v>
+        <v>1.018663119322569</v>
       </c>
       <c r="M20">
-        <v>1.02496444207905</v>
+        <v>1.024811066981568</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028371363284895</v>
+        <v>1.028249981251865</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03444728889037</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034075092978377</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020976208279231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9925628433058994</v>
+        <v>0.9923531642657065</v>
       </c>
       <c r="D21">
-        <v>1.016215525755663</v>
+        <v>1.015869707574772</v>
       </c>
       <c r="E21">
-        <v>1.001440831617955</v>
+        <v>1.001282256218313</v>
       </c>
       <c r="F21">
-        <v>1.007234176411532</v>
+        <v>1.007142787493545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044373571833037</v>
+        <v>1.044188733492137</v>
       </c>
       <c r="J21">
-        <v>1.022374833841748</v>
+        <v>1.02217411253902</v>
       </c>
       <c r="K21">
-        <v>1.030896067254295</v>
+        <v>1.030556534301047</v>
       </c>
       <c r="L21">
-        <v>1.016394958321808</v>
+        <v>1.016239376515624</v>
       </c>
       <c r="M21">
-        <v>1.022079779096066</v>
+        <v>1.021990089480781</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026046906578643</v>
+        <v>1.025975921796251</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032998624462701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032775438224288</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020585221684795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9896563995818493</v>
+        <v>0.9895413772227738</v>
       </c>
       <c r="D22">
-        <v>1.014304547955735</v>
+        <v>1.014093256575903</v>
       </c>
       <c r="E22">
-        <v>0.9992019220283714</v>
+        <v>0.9991268070016889</v>
       </c>
       <c r="F22">
-        <v>1.00490899130464</v>
+        <v>1.004858805323799</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043516258436268</v>
+        <v>1.043405287659846</v>
       </c>
       <c r="J22">
-        <v>1.020857393984447</v>
+        <v>1.020747573496709</v>
       </c>
       <c r="K22">
-        <v>1.029597857167309</v>
+        <v>1.029390599580067</v>
       </c>
       <c r="L22">
-        <v>1.014789205595391</v>
+        <v>1.014715581885097</v>
       </c>
       <c r="M22">
-        <v>1.020383823376551</v>
+        <v>1.020334618951333</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024704642377045</v>
+        <v>1.02466569949385</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032067190405224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031936227245845</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020336549721236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.991193678646205</v>
+        <v>0.9910287069877367</v>
       </c>
       <c r="D23">
-        <v>1.015308936266816</v>
+        <v>1.015026454439552</v>
       </c>
       <c r="E23">
-        <v>1.000383878096823</v>
+        <v>1.000264818757197</v>
       </c>
       <c r="F23">
-        <v>1.006141304527422</v>
+        <v>1.006069365566596</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04396666525833</v>
+        <v>1.043816671484905</v>
       </c>
       <c r="J23">
-        <v>1.021656234894255</v>
+        <v>1.02149850379261</v>
       </c>
       <c r="K23">
-        <v>1.030277166784166</v>
+        <v>1.029999940226038</v>
       </c>
       <c r="L23">
-        <v>1.015635098850906</v>
+        <v>1.015518341456037</v>
       </c>
       <c r="M23">
-        <v>1.021282059103434</v>
+        <v>1.021211490213001</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025415551397328</v>
+        <v>1.025359699648017</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032537833011297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032356449786356</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.0204654004431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9971365677154308</v>
+        <v>0.9967807018443884</v>
       </c>
       <c r="D24">
-        <v>1.019211263224978</v>
+        <v>1.018655147637221</v>
       </c>
       <c r="E24">
-        <v>1.004970955859427</v>
+        <v>1.004683418299927</v>
       </c>
       <c r="F24">
-        <v>1.010918920406399</v>
+        <v>1.010764078584441</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045693806350825</v>
+        <v>1.045393530965828</v>
       </c>
       <c r="J24">
-        <v>1.024745290423631</v>
+        <v>1.024403241684692</v>
       </c>
       <c r="K24">
-        <v>1.032909202787206</v>
+        <v>1.03236239106251</v>
       </c>
       <c r="L24">
-        <v>1.018911334705516</v>
+        <v>1.018628784039516</v>
       </c>
       <c r="M24">
-        <v>1.024756962982247</v>
+        <v>1.024604765528798</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028165758480474</v>
+        <v>1.02804530228159</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034391298237983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034018540141403</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020961830026538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003790344858468</v>
+        <v>1.003225536938167</v>
       </c>
       <c r="D25">
-        <v>1.023598547200078</v>
+        <v>1.022739185710569</v>
       </c>
       <c r="E25">
-        <v>1.010136209794591</v>
+        <v>1.009663616427586</v>
       </c>
       <c r="F25">
-        <v>1.016305854056777</v>
+        <v>1.016060708285058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047583926582664</v>
+        <v>1.047116721794501</v>
       </c>
       <c r="J25">
-        <v>1.028190818646638</v>
+        <v>1.027644834373754</v>
       </c>
       <c r="K25">
-        <v>1.035841247223134</v>
+        <v>1.034994470266236</v>
       </c>
       <c r="L25">
-        <v>1.022579185876246</v>
+        <v>1.02211374679167</v>
       </c>
       <c r="M25">
-        <v>1.028656208240281</v>
+        <v>1.028414715432193</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.031251796797956</v>
+        <v>1.031060668911554</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036461543255952</v>
+        <v>1.035876382371852</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021503695071576</v>
       </c>
     </row>
   </sheetData>
